--- a/ISRaD_data_files/Lupascu_2013.xlsx
+++ b/ISRaD_data_files/Lupascu_2013.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Agatha/Desktop/MPI/Aragones/By Entry v3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f0076db\Documents\GitHub\ISRaD\ISRaD_data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B8BC4B-8623-BA49-B67C-4572E31D684D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D263236-8463-4619-A6A8-5EB604C5D594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9765" uniqueCount="2264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10051" uniqueCount="2264">
   <si>
     <t>entry_name</t>
   </si>
@@ -7164,13 +7164,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2261</v>
       </c>
@@ -7363,9 +7363,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2261</v>
       </c>
@@ -7455,13 +7455,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2261</v>
       </c>
@@ -7942,9 +7942,9 @@
       <selection activeCell="E214" sqref="E214:E288"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2261</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2261</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2261</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2261</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2261</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2261</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2261</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2261</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2261</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2261</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2261</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2261</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2261</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2261</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2261</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2261</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>2261</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>2261</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2261</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2261</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2261</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2261</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2261</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2261</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>2261</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>2261</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>2261</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2261</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>2261</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>2261</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>2261</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2261</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>2261</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>2261</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>2261</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>2261</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>2261</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>2261</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>2261</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>2261</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>2261</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>2261</v>
       </c>
@@ -10071,7 +10071,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>2261</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>2261</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>2261</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>2261</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>2261</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>2261</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>2261</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>2261</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>2261</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>2261</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>2261</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>2261</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>2261</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>2261</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>2261</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>2261</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>2261</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>2261</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>2261</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>2261</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>2261</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>2261</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>2261</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>2261</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>2261</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>2261</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>2261</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>2261</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>2261</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>2261</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>2261</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>2261</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>2261</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>2261</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>2261</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>2261</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>2261</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>2261</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>2261</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>2261</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>2261</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>2261</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>2261</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>2261</v>
       </c>
@@ -11986,7 +11986,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>2261</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>2261</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>2261</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>2261</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>2261</v>
       </c>
@@ -12191,7 +12191,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>2261</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>2261</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>2261</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>2261</v>
       </c>
@@ -12355,7 +12355,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>2261</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>2261</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>2261</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>2261</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>2261</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>2261</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>2261</v>
       </c>
@@ -12642,7 +12642,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>2261</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>2261</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>2261</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>2261</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>2261</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>2261</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>2261</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="113" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>2261</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="114" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>2261</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="115" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>2261</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="116" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>2261</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="117" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>2261</v>
       </c>
@@ -13134,7 +13134,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="118" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>2261</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="119" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>2261</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="120" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>2261</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="121" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>2261</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="122" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>2261</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="123" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>2261</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="124" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>2261</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="125" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>2261</v>
       </c>
@@ -13462,7 +13462,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="126" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>2261</v>
       </c>
@@ -13503,7 +13503,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="127" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>2261</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="128" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>2261</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="129" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>2261</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="130" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>2261</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="131" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>2261</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="132" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>2261</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="133" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>2261</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="134" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>2261</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="135" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>2261</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="136" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>2261</v>
       </c>
@@ -13940,7 +13940,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="137" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>2261</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="138" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>2261</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="139" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>2261</v>
       </c>
@@ -14072,7 +14072,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="140" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>2261</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="141" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>2261</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="142" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>2261</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="143" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>2261</v>
       </c>
@@ -14248,7 +14248,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="144" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>2261</v>
       </c>
@@ -14292,7 +14292,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="145" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>2261</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="146" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>2261</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="147" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>2261</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="148" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>2261</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="149" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>2261</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="150" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>2261</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="151" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>2261</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="152" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>2261</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="153" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>2261</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="154" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>2261</v>
       </c>
@@ -14732,7 +14732,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="155" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>2261</v>
       </c>
@@ -14776,7 +14776,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="156" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>2261</v>
       </c>
@@ -14820,7 +14820,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="157" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>2261</v>
       </c>
@@ -14864,7 +14864,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="158" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>2261</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="159" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>2261</v>
       </c>
@@ -14952,7 +14952,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="160" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>2261</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="161" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>2261</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="162" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>2261</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="163" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>2261</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="164" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>2261</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="165" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>2261</v>
       </c>
@@ -15216,7 +15216,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="166" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>2261</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="167" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>2261</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="168" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>2261</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="169" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>2261</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="170" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>2261</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="171" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>2261</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="172" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>2261</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="173" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>2261</v>
       </c>
@@ -15568,7 +15568,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="174" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>2261</v>
       </c>
@@ -15612,7 +15612,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="175" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>2261</v>
       </c>
@@ -15656,7 +15656,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="176" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>2261</v>
       </c>
@@ -15700,7 +15700,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="177" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>2261</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="178" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>2261</v>
       </c>
@@ -15788,7 +15788,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="179" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>2261</v>
       </c>
@@ -15832,7 +15832,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="180" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>2261</v>
       </c>
@@ -15876,7 +15876,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="181" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>2261</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="182" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>2261</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="183" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>2261</v>
       </c>
@@ -16008,7 +16008,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="184" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>2261</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="185" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>2261</v>
       </c>
@@ -16096,7 +16096,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="186" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>2261</v>
       </c>
@@ -16140,7 +16140,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="187" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>2261</v>
       </c>
@@ -16184,7 +16184,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="188" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>2261</v>
       </c>
@@ -16228,7 +16228,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="189" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>2261</v>
       </c>
@@ -16272,7 +16272,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="190" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>2261</v>
       </c>
@@ -16316,7 +16316,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="191" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>2261</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="192" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>2261</v>
       </c>
@@ -16404,7 +16404,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="193" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>2261</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="194" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>2261</v>
       </c>
@@ -16492,7 +16492,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="195" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>2261</v>
       </c>
@@ -16536,7 +16536,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="196" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>2261</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="197" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>2261</v>
       </c>
@@ -16624,7 +16624,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="198" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>2261</v>
       </c>
@@ -16668,7 +16668,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="199" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>2261</v>
       </c>
@@ -16712,7 +16712,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="200" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>2261</v>
       </c>
@@ -16756,7 +16756,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="201" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>2261</v>
       </c>
@@ -16800,7 +16800,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="202" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>2261</v>
       </c>
@@ -16844,7 +16844,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="203" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>2261</v>
       </c>
@@ -16888,7 +16888,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="204" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>2261</v>
       </c>
@@ -16932,7 +16932,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="205" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>2261</v>
       </c>
@@ -16976,7 +16976,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="206" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>2261</v>
       </c>
@@ -17020,7 +17020,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="207" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>2261</v>
       </c>
@@ -17064,7 +17064,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="208" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>2261</v>
       </c>
@@ -17108,7 +17108,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="209" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>2261</v>
       </c>
@@ -17152,7 +17152,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="210" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>2261</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="211" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>2261</v>
       </c>
@@ -17240,7 +17240,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="212" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>2261</v>
       </c>
@@ -17284,7 +17284,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="213" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>2261</v>
       </c>
@@ -17328,7 +17328,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="214" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>2261</v>
       </c>
@@ -17372,7 +17372,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="215" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>2261</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="216" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>2261</v>
       </c>
@@ -17460,7 +17460,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="217" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>2261</v>
       </c>
@@ -17504,7 +17504,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="218" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>2261</v>
       </c>
@@ -17548,7 +17548,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="219" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>2261</v>
       </c>
@@ -17592,7 +17592,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="220" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>2261</v>
       </c>
@@ -17636,7 +17636,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="221" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>2261</v>
       </c>
@@ -17680,7 +17680,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="222" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>2261</v>
       </c>
@@ -17724,7 +17724,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="223" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>2261</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="224" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>2261</v>
       </c>
@@ -17812,7 +17812,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="225" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>2261</v>
       </c>
@@ -17856,7 +17856,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="226" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>2261</v>
       </c>
@@ -17900,7 +17900,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="227" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>2261</v>
       </c>
@@ -17944,7 +17944,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="228" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>2261</v>
       </c>
@@ -17988,7 +17988,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="229" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>2261</v>
       </c>
@@ -18032,7 +18032,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="230" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>2261</v>
       </c>
@@ -18076,7 +18076,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="231" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>2261</v>
       </c>
@@ -18120,7 +18120,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="232" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>2261</v>
       </c>
@@ -18164,7 +18164,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="233" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>2261</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="234" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>2261</v>
       </c>
@@ -18252,7 +18252,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="235" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>2261</v>
       </c>
@@ -18296,7 +18296,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="236" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>2261</v>
       </c>
@@ -18340,7 +18340,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="237" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>2261</v>
       </c>
@@ -18384,7 +18384,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="238" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>2261</v>
       </c>
@@ -18428,7 +18428,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="239" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>2261</v>
       </c>
@@ -18472,7 +18472,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="240" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>2261</v>
       </c>
@@ -18516,7 +18516,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="241" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>2261</v>
       </c>
@@ -18560,7 +18560,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="242" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>2261</v>
       </c>
@@ -18604,7 +18604,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="243" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>2261</v>
       </c>
@@ -18648,7 +18648,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="244" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>2261</v>
       </c>
@@ -18692,7 +18692,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="245" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>2261</v>
       </c>
@@ -18736,7 +18736,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="246" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>2261</v>
       </c>
@@ -18780,7 +18780,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="247" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>2261</v>
       </c>
@@ -18824,7 +18824,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="248" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>2261</v>
       </c>
@@ -18868,7 +18868,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="249" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>2261</v>
       </c>
@@ -18912,7 +18912,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="250" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>2261</v>
       </c>
@@ -18956,7 +18956,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="251" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>2261</v>
       </c>
@@ -19000,7 +19000,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="252" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>2261</v>
       </c>
@@ -19044,7 +19044,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="253" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>2261</v>
       </c>
@@ -19088,7 +19088,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="254" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>2261</v>
       </c>
@@ -19132,7 +19132,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="255" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>2261</v>
       </c>
@@ -19176,7 +19176,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="256" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>2261</v>
       </c>
@@ -19220,7 +19220,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="257" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>2261</v>
       </c>
@@ -19264,7 +19264,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="258" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>2261</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="259" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>2261</v>
       </c>
@@ -19352,7 +19352,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="260" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>2261</v>
       </c>
@@ -19396,7 +19396,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="261" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>2261</v>
       </c>
@@ -19440,7 +19440,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="262" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>2261</v>
       </c>
@@ -19484,7 +19484,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="263" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>2261</v>
       </c>
@@ -19528,7 +19528,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="264" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>2261</v>
       </c>
@@ -19572,7 +19572,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="265" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>2261</v>
       </c>
@@ -19616,7 +19616,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="266" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>2261</v>
       </c>
@@ -19660,7 +19660,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="267" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>2261</v>
       </c>
@@ -19704,7 +19704,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="268" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>2261</v>
       </c>
@@ -19748,7 +19748,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="269" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>2261</v>
       </c>
@@ -19792,7 +19792,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="270" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>2261</v>
       </c>
@@ -19836,7 +19836,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="271" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>2261</v>
       </c>
@@ -19880,7 +19880,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="272" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>2261</v>
       </c>
@@ -19924,7 +19924,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="273" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>2261</v>
       </c>
@@ -19968,7 +19968,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="274" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>2261</v>
       </c>
@@ -20012,7 +20012,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="275" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>2261</v>
       </c>
@@ -20056,7 +20056,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="276" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>2261</v>
       </c>
@@ -20100,7 +20100,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="277" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>2261</v>
       </c>
@@ -20144,7 +20144,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="278" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>2261</v>
       </c>
@@ -20188,7 +20188,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="279" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>2261</v>
       </c>
@@ -20232,7 +20232,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="280" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>2261</v>
       </c>
@@ -20276,7 +20276,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="281" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>2261</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="282" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>2261</v>
       </c>
@@ -20364,7 +20364,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="283" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>2261</v>
       </c>
@@ -20408,7 +20408,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="284" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>2261</v>
       </c>
@@ -20452,7 +20452,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="285" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>2261</v>
       </c>
@@ -20496,7 +20496,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="286" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>2261</v>
       </c>
@@ -20540,7 +20540,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="287" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>2261</v>
       </c>
@@ -20584,7 +20584,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="288" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>2261</v>
       </c>
@@ -20628,7 +20628,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="289" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>2261</v>
       </c>
@@ -20672,7 +20672,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="290" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>2261</v>
       </c>
@@ -20716,7 +20716,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="291" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>2261</v>
       </c>
@@ -20760,7 +20760,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="292" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>2261</v>
       </c>
@@ -20804,7 +20804,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="293" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>2261</v>
       </c>
@@ -20848,7 +20848,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="294" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>2261</v>
       </c>
@@ -20892,7 +20892,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="295" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>2261</v>
       </c>
@@ -20936,7 +20936,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="296" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>2261</v>
       </c>
@@ -20980,7 +20980,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="297" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>2261</v>
       </c>
@@ -21024,7 +21024,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="298" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>2261</v>
       </c>
@@ -21068,7 +21068,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="299" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>2261</v>
       </c>
@@ -21112,7 +21112,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="300" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>2261</v>
       </c>
@@ -21156,7 +21156,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="301" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>2261</v>
       </c>
@@ -21200,7 +21200,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="302" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>2261</v>
       </c>
@@ -21244,7 +21244,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="303" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>2261</v>
       </c>
@@ -21288,7 +21288,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="304" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>2261</v>
       </c>
@@ -21332,7 +21332,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="305" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>2261</v>
       </c>
@@ -21376,7 +21376,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="306" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>2261</v>
       </c>
@@ -21420,7 +21420,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="307" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>2261</v>
       </c>
@@ -21464,7 +21464,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="308" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>2261</v>
       </c>
@@ -21508,7 +21508,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="309" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>2261</v>
       </c>
@@ -21552,7 +21552,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="310" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>2261</v>
       </c>
@@ -21596,7 +21596,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="311" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>2261</v>
       </c>
@@ -21640,7 +21640,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="312" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>2261</v>
       </c>
@@ -21684,7 +21684,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="313" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>2261</v>
       </c>
@@ -21728,7 +21728,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="314" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>2261</v>
       </c>
@@ -21772,7 +21772,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="315" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>2261</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="316" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>2261</v>
       </c>
@@ -21860,7 +21860,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="317" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>2261</v>
       </c>
@@ -21904,7 +21904,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="318" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>2261</v>
       </c>
@@ -21948,7 +21948,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="319" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>2261</v>
       </c>
@@ -21992,7 +21992,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="320" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>2261</v>
       </c>
@@ -22036,7 +22036,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="321" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>2261</v>
       </c>
@@ -22080,7 +22080,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="322" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>2261</v>
       </c>
@@ -22124,7 +22124,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="323" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>2261</v>
       </c>
@@ -22168,7 +22168,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="324" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>2261</v>
       </c>
@@ -22212,7 +22212,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="325" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>2261</v>
       </c>
@@ -22256,7 +22256,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="326" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>2261</v>
       </c>
@@ -22300,7 +22300,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="327" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>2261</v>
       </c>
@@ -22344,7 +22344,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="328" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>2261</v>
       </c>
@@ -22388,7 +22388,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="329" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>2261</v>
       </c>
@@ -22432,7 +22432,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="330" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>2261</v>
       </c>
@@ -22476,7 +22476,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="331" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>2261</v>
       </c>
@@ -22520,7 +22520,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="332" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>2261</v>
       </c>
@@ -22564,7 +22564,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="333" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>2261</v>
       </c>
@@ -22608,7 +22608,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="334" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>2261</v>
       </c>
@@ -22652,7 +22652,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="335" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>2261</v>
       </c>
@@ -22696,7 +22696,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="336" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>2261</v>
       </c>
@@ -22740,7 +22740,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="337" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>2261</v>
       </c>
@@ -22784,7 +22784,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="338" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>2261</v>
       </c>
@@ -22828,7 +22828,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="339" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>2261</v>
       </c>
@@ -22872,7 +22872,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="340" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>2261</v>
       </c>
@@ -22916,7 +22916,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="341" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>2261</v>
       </c>
@@ -22960,7 +22960,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="342" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>2261</v>
       </c>
@@ -23004,7 +23004,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="343" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>2261</v>
       </c>
@@ -23048,7 +23048,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="344" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>2261</v>
       </c>
@@ -23092,7 +23092,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="345" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>2261</v>
       </c>
@@ -23136,7 +23136,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="346" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>2261</v>
       </c>
@@ -23180,7 +23180,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="347" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>2261</v>
       </c>
@@ -23224,7 +23224,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="348" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>2261</v>
       </c>
@@ -23268,7 +23268,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="349" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>2261</v>
       </c>
@@ -23312,7 +23312,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="350" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>2261</v>
       </c>
@@ -23356,7 +23356,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="351" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>2261</v>
       </c>
@@ -23400,7 +23400,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="352" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>2261</v>
       </c>
@@ -23444,7 +23444,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="353" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>2261</v>
       </c>
@@ -23488,7 +23488,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="354" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>2261</v>
       </c>
@@ -23532,7 +23532,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="355" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>2261</v>
       </c>
@@ -23576,7 +23576,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="356" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>2261</v>
       </c>
@@ -23620,7 +23620,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="357" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>2261</v>
       </c>
@@ -23664,7 +23664,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="358" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>2261</v>
       </c>
@@ -23708,7 +23708,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="359" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>2261</v>
       </c>
@@ -23752,7 +23752,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="360" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>2261</v>
       </c>
@@ -23793,7 +23793,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="361" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>2261</v>
       </c>
@@ -23834,7 +23834,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="362" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>2261</v>
       </c>
@@ -23875,7 +23875,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="363" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>2261</v>
       </c>
@@ -23930,9 +23930,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24264,7 +24264,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="2" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -24596,7 +24596,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="3" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -24862,7 +24862,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2261</v>
       </c>
@@ -24894,7 +24894,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2261</v>
       </c>
@@ -24926,7 +24926,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="6" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2261</v>
       </c>
@@ -24958,7 +24958,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="7" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2261</v>
       </c>
@@ -25001,12 +25001,12 @@
   <dimension ref="A1:AG289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="K4" sqref="K4:K289"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -25107,7 +25107,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -25205,7 +25205,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -25273,7 +25273,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2261</v>
       </c>
@@ -25301,6 +25301,9 @@
       <c r="J4" t="s">
         <v>945</v>
       </c>
+      <c r="K4" t="s">
+        <v>1707</v>
+      </c>
       <c r="L4" t="s">
         <v>300</v>
       </c>
@@ -25308,7 +25311,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2261</v>
       </c>
@@ -25336,6 +25339,9 @@
       <c r="J5" t="s">
         <v>945</v>
       </c>
+      <c r="K5" t="s">
+        <v>1707</v>
+      </c>
       <c r="L5" t="s">
         <v>300</v>
       </c>
@@ -25343,7 +25349,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2261</v>
       </c>
@@ -25371,6 +25377,9 @@
       <c r="J6" t="s">
         <v>945</v>
       </c>
+      <c r="K6" t="s">
+        <v>1707</v>
+      </c>
       <c r="L6" t="s">
         <v>300</v>
       </c>
@@ -25378,7 +25387,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2261</v>
       </c>
@@ -25406,6 +25415,9 @@
       <c r="J7" t="s">
         <v>945</v>
       </c>
+      <c r="K7" t="s">
+        <v>1707</v>
+      </c>
       <c r="L7" t="s">
         <v>300</v>
       </c>
@@ -25413,7 +25425,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2261</v>
       </c>
@@ -25441,6 +25453,9 @@
       <c r="J8" t="s">
         <v>945</v>
       </c>
+      <c r="K8" t="s">
+        <v>1707</v>
+      </c>
       <c r="L8" t="s">
         <v>300</v>
       </c>
@@ -25448,7 +25463,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2261</v>
       </c>
@@ -25476,6 +25491,9 @@
       <c r="J9" t="s">
         <v>945</v>
       </c>
+      <c r="K9" t="s">
+        <v>1707</v>
+      </c>
       <c r="L9" t="s">
         <v>300</v>
       </c>
@@ -25483,7 +25501,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2261</v>
       </c>
@@ -25511,6 +25529,9 @@
       <c r="J10" t="s">
         <v>945</v>
       </c>
+      <c r="K10" t="s">
+        <v>1707</v>
+      </c>
       <c r="L10" t="s">
         <v>300</v>
       </c>
@@ -25518,7 +25539,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2261</v>
       </c>
@@ -25546,6 +25567,9 @@
       <c r="J11" t="s">
         <v>945</v>
       </c>
+      <c r="K11" t="s">
+        <v>1707</v>
+      </c>
       <c r="L11" t="s">
         <v>300</v>
       </c>
@@ -25553,7 +25577,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2261</v>
       </c>
@@ -25581,6 +25605,9 @@
       <c r="J12" t="s">
         <v>945</v>
       </c>
+      <c r="K12" t="s">
+        <v>1707</v>
+      </c>
       <c r="L12" t="s">
         <v>300</v>
       </c>
@@ -25588,7 +25615,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2261</v>
       </c>
@@ -25616,6 +25643,9 @@
       <c r="J13" t="s">
         <v>945</v>
       </c>
+      <c r="K13" t="s">
+        <v>1707</v>
+      </c>
       <c r="L13" t="s">
         <v>300</v>
       </c>
@@ -25623,7 +25653,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2261</v>
       </c>
@@ -25651,6 +25681,9 @@
       <c r="J14" t="s">
         <v>945</v>
       </c>
+      <c r="K14" t="s">
+        <v>1707</v>
+      </c>
       <c r="L14" t="s">
         <v>300</v>
       </c>
@@ -25658,7 +25691,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2261</v>
       </c>
@@ -25686,6 +25719,9 @@
       <c r="J15" t="s">
         <v>945</v>
       </c>
+      <c r="K15" t="s">
+        <v>1707</v>
+      </c>
       <c r="L15" t="s">
         <v>300</v>
       </c>
@@ -25693,7 +25729,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2261</v>
       </c>
@@ -25721,6 +25757,9 @@
       <c r="J16" t="s">
         <v>945</v>
       </c>
+      <c r="K16" t="s">
+        <v>1707</v>
+      </c>
       <c r="L16" t="s">
         <v>300</v>
       </c>
@@ -25728,7 +25767,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2261</v>
       </c>
@@ -25756,6 +25795,9 @@
       <c r="J17" t="s">
         <v>945</v>
       </c>
+      <c r="K17" t="s">
+        <v>1707</v>
+      </c>
       <c r="L17" t="s">
         <v>300</v>
       </c>
@@ -25763,7 +25805,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2261</v>
       </c>
@@ -25791,6 +25833,9 @@
       <c r="J18" t="s">
         <v>945</v>
       </c>
+      <c r="K18" t="s">
+        <v>1707</v>
+      </c>
       <c r="L18" t="s">
         <v>300</v>
       </c>
@@ -25798,7 +25843,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2261</v>
       </c>
@@ -25826,6 +25871,9 @@
       <c r="J19" t="s">
         <v>945</v>
       </c>
+      <c r="K19" t="s">
+        <v>1707</v>
+      </c>
       <c r="L19" t="s">
         <v>300</v>
       </c>
@@ -25833,7 +25881,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>2261</v>
       </c>
@@ -25861,6 +25909,9 @@
       <c r="J20" t="s">
         <v>945</v>
       </c>
+      <c r="K20" t="s">
+        <v>1707</v>
+      </c>
       <c r="L20" t="s">
         <v>300</v>
       </c>
@@ -25868,7 +25919,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>2261</v>
       </c>
@@ -25896,6 +25947,9 @@
       <c r="J21" t="s">
         <v>945</v>
       </c>
+      <c r="K21" t="s">
+        <v>1707</v>
+      </c>
       <c r="L21" t="s">
         <v>300</v>
       </c>
@@ -25903,7 +25957,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2261</v>
       </c>
@@ -25931,6 +25985,9 @@
       <c r="J22" t="s">
         <v>945</v>
       </c>
+      <c r="K22" t="s">
+        <v>1707</v>
+      </c>
       <c r="L22" t="s">
         <v>300</v>
       </c>
@@ -25938,7 +25995,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2261</v>
       </c>
@@ -25966,6 +26023,9 @@
       <c r="J23" t="s">
         <v>945</v>
       </c>
+      <c r="K23" t="s">
+        <v>1707</v>
+      </c>
       <c r="L23" t="s">
         <v>300</v>
       </c>
@@ -25973,7 +26033,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2261</v>
       </c>
@@ -26001,6 +26061,9 @@
       <c r="J24" t="s">
         <v>945</v>
       </c>
+      <c r="K24" t="s">
+        <v>1707</v>
+      </c>
       <c r="L24" t="s">
         <v>300</v>
       </c>
@@ -26008,7 +26071,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2261</v>
       </c>
@@ -26036,6 +26099,9 @@
       <c r="J25" t="s">
         <v>945</v>
       </c>
+      <c r="K25" t="s">
+        <v>1707</v>
+      </c>
       <c r="L25" t="s">
         <v>300</v>
       </c>
@@ -26046,7 +26112,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2261</v>
       </c>
@@ -26074,6 +26140,9 @@
       <c r="J26" t="s">
         <v>945</v>
       </c>
+      <c r="K26" t="s">
+        <v>1707</v>
+      </c>
       <c r="L26" t="s">
         <v>300</v>
       </c>
@@ -26084,7 +26153,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2261</v>
       </c>
@@ -26112,6 +26181,9 @@
       <c r="J27" t="s">
         <v>945</v>
       </c>
+      <c r="K27" t="s">
+        <v>1707</v>
+      </c>
       <c r="L27" t="s">
         <v>300</v>
       </c>
@@ -26122,7 +26194,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>2261</v>
       </c>
@@ -26150,6 +26222,9 @@
       <c r="J28" t="s">
         <v>945</v>
       </c>
+      <c r="K28" t="s">
+        <v>1707</v>
+      </c>
       <c r="L28" t="s">
         <v>300</v>
       </c>
@@ -26160,7 +26235,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>2261</v>
       </c>
@@ -26188,6 +26263,9 @@
       <c r="J29" t="s">
         <v>945</v>
       </c>
+      <c r="K29" t="s">
+        <v>1707</v>
+      </c>
       <c r="L29" t="s">
         <v>300</v>
       </c>
@@ -26198,7 +26276,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>2261</v>
       </c>
@@ -26226,6 +26304,9 @@
       <c r="J30" t="s">
         <v>945</v>
       </c>
+      <c r="K30" t="s">
+        <v>1707</v>
+      </c>
       <c r="L30" t="s">
         <v>300</v>
       </c>
@@ -26236,7 +26317,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2261</v>
       </c>
@@ -26264,6 +26345,9 @@
       <c r="J31" t="s">
         <v>945</v>
       </c>
+      <c r="K31" t="s">
+        <v>1707</v>
+      </c>
       <c r="L31" t="s">
         <v>300</v>
       </c>
@@ -26274,7 +26358,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>2261</v>
       </c>
@@ -26302,6 +26386,9 @@
       <c r="J32" t="s">
         <v>945</v>
       </c>
+      <c r="K32" t="s">
+        <v>1707</v>
+      </c>
       <c r="L32" t="s">
         <v>300</v>
       </c>
@@ -26312,7 +26399,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>2261</v>
       </c>
@@ -26340,6 +26427,9 @@
       <c r="J33" t="s">
         <v>945</v>
       </c>
+      <c r="K33" t="s">
+        <v>1707</v>
+      </c>
       <c r="L33" t="s">
         <v>300</v>
       </c>
@@ -26350,7 +26440,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>2261</v>
       </c>
@@ -26378,6 +26468,9 @@
       <c r="J34" t="s">
         <v>945</v>
       </c>
+      <c r="K34" t="s">
+        <v>1707</v>
+      </c>
       <c r="L34" t="s">
         <v>300</v>
       </c>
@@ -26388,7 +26481,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2261</v>
       </c>
@@ -26416,6 +26509,9 @@
       <c r="J35" t="s">
         <v>945</v>
       </c>
+      <c r="K35" t="s">
+        <v>1707</v>
+      </c>
       <c r="L35" t="s">
         <v>300</v>
       </c>
@@ -26426,7 +26522,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>2261</v>
       </c>
@@ -26454,6 +26550,9 @@
       <c r="J36" t="s">
         <v>945</v>
       </c>
+      <c r="K36" t="s">
+        <v>1707</v>
+      </c>
       <c r="L36" t="s">
         <v>300</v>
       </c>
@@ -26464,7 +26563,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>2261</v>
       </c>
@@ -26492,6 +26591,9 @@
       <c r="J37" t="s">
         <v>945</v>
       </c>
+      <c r="K37" t="s">
+        <v>1707</v>
+      </c>
       <c r="L37" t="s">
         <v>300</v>
       </c>
@@ -26502,7 +26604,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>2261</v>
       </c>
@@ -26530,6 +26632,9 @@
       <c r="J38" t="s">
         <v>945</v>
       </c>
+      <c r="K38" t="s">
+        <v>1707</v>
+      </c>
       <c r="L38" t="s">
         <v>300</v>
       </c>
@@ -26540,7 +26645,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>2261</v>
       </c>
@@ -26568,6 +26673,9 @@
       <c r="J39" t="s">
         <v>945</v>
       </c>
+      <c r="K39" t="s">
+        <v>1707</v>
+      </c>
       <c r="L39" t="s">
         <v>300</v>
       </c>
@@ -26578,7 +26686,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>2261</v>
       </c>
@@ -26606,6 +26714,9 @@
       <c r="J40" t="s">
         <v>945</v>
       </c>
+      <c r="K40" t="s">
+        <v>1707</v>
+      </c>
       <c r="L40" t="s">
         <v>300</v>
       </c>
@@ -26616,7 +26727,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>2261</v>
       </c>
@@ -26644,6 +26755,9 @@
       <c r="J41" t="s">
         <v>945</v>
       </c>
+      <c r="K41" t="s">
+        <v>1707</v>
+      </c>
       <c r="L41" t="s">
         <v>300</v>
       </c>
@@ -26654,7 +26768,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>2261</v>
       </c>
@@ -26682,6 +26796,9 @@
       <c r="J42" t="s">
         <v>945</v>
       </c>
+      <c r="K42" t="s">
+        <v>1707</v>
+      </c>
       <c r="L42" t="s">
         <v>300</v>
       </c>
@@ -26692,7 +26809,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>2261</v>
       </c>
@@ -26720,6 +26837,9 @@
       <c r="J43" t="s">
         <v>945</v>
       </c>
+      <c r="K43" t="s">
+        <v>1707</v>
+      </c>
       <c r="L43" t="s">
         <v>300</v>
       </c>
@@ -26730,7 +26850,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>2261</v>
       </c>
@@ -26758,6 +26878,9 @@
       <c r="J44" t="s">
         <v>945</v>
       </c>
+      <c r="K44" t="s">
+        <v>1707</v>
+      </c>
       <c r="L44" t="s">
         <v>300</v>
       </c>
@@ -26768,7 +26891,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>2261</v>
       </c>
@@ -26796,6 +26919,9 @@
       <c r="J45" t="s">
         <v>945</v>
       </c>
+      <c r="K45" t="s">
+        <v>1707</v>
+      </c>
       <c r="L45" t="s">
         <v>300</v>
       </c>
@@ -26806,7 +26932,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>2261</v>
       </c>
@@ -26834,6 +26960,9 @@
       <c r="J46" t="s">
         <v>945</v>
       </c>
+      <c r="K46" t="s">
+        <v>1707</v>
+      </c>
       <c r="L46" t="s">
         <v>300</v>
       </c>
@@ -26844,7 +26973,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>2261</v>
       </c>
@@ -26872,6 +27001,9 @@
       <c r="J47" t="s">
         <v>945</v>
       </c>
+      <c r="K47" t="s">
+        <v>1707</v>
+      </c>
       <c r="L47" t="s">
         <v>300</v>
       </c>
@@ -26882,7 +27014,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>2261</v>
       </c>
@@ -26910,6 +27042,9 @@
       <c r="J48" t="s">
         <v>945</v>
       </c>
+      <c r="K48" t="s">
+        <v>1707</v>
+      </c>
       <c r="L48" t="s">
         <v>300</v>
       </c>
@@ -26920,7 +27055,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>2261</v>
       </c>
@@ -26948,6 +27083,9 @@
       <c r="J49" t="s">
         <v>945</v>
       </c>
+      <c r="K49" t="s">
+        <v>1707</v>
+      </c>
       <c r="L49" t="s">
         <v>300</v>
       </c>
@@ -26958,7 +27096,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>2261</v>
       </c>
@@ -26986,6 +27124,9 @@
       <c r="J50" t="s">
         <v>945</v>
       </c>
+      <c r="K50" t="s">
+        <v>1707</v>
+      </c>
       <c r="L50" t="s">
         <v>300</v>
       </c>
@@ -26996,7 +27137,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>2261</v>
       </c>
@@ -27024,6 +27165,9 @@
       <c r="J51" t="s">
         <v>945</v>
       </c>
+      <c r="K51" t="s">
+        <v>1707</v>
+      </c>
       <c r="L51" t="s">
         <v>300</v>
       </c>
@@ -27034,7 +27178,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>2261</v>
       </c>
@@ -27062,6 +27206,9 @@
       <c r="J52" t="s">
         <v>945</v>
       </c>
+      <c r="K52" t="s">
+        <v>1707</v>
+      </c>
       <c r="L52" t="s">
         <v>300</v>
       </c>
@@ -27072,7 +27219,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>2261</v>
       </c>
@@ -27100,6 +27247,9 @@
       <c r="J53" t="s">
         <v>945</v>
       </c>
+      <c r="K53" t="s">
+        <v>1707</v>
+      </c>
       <c r="L53" t="s">
         <v>300</v>
       </c>
@@ -27110,7 +27260,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>2261</v>
       </c>
@@ -27138,6 +27288,9 @@
       <c r="J54" t="s">
         <v>945</v>
       </c>
+      <c r="K54" t="s">
+        <v>1707</v>
+      </c>
       <c r="L54" t="s">
         <v>300</v>
       </c>
@@ -27148,7 +27301,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>2261</v>
       </c>
@@ -27176,6 +27329,9 @@
       <c r="J55" t="s">
         <v>945</v>
       </c>
+      <c r="K55" t="s">
+        <v>1707</v>
+      </c>
       <c r="L55" t="s">
         <v>300</v>
       </c>
@@ -27186,7 +27342,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>2261</v>
       </c>
@@ -27214,6 +27370,9 @@
       <c r="J56" t="s">
         <v>945</v>
       </c>
+      <c r="K56" t="s">
+        <v>1707</v>
+      </c>
       <c r="L56" t="s">
         <v>300</v>
       </c>
@@ -27224,7 +27383,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>2261</v>
       </c>
@@ -27252,6 +27411,9 @@
       <c r="J57" t="s">
         <v>945</v>
       </c>
+      <c r="K57" t="s">
+        <v>1707</v>
+      </c>
       <c r="L57" t="s">
         <v>300</v>
       </c>
@@ -27262,7 +27424,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>2261</v>
       </c>
@@ -27290,6 +27452,9 @@
       <c r="J58" t="s">
         <v>945</v>
       </c>
+      <c r="K58" t="s">
+        <v>1707</v>
+      </c>
       <c r="L58" t="s">
         <v>300</v>
       </c>
@@ -27300,7 +27465,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>2261</v>
       </c>
@@ -27328,6 +27493,9 @@
       <c r="J59" t="s">
         <v>945</v>
       </c>
+      <c r="K59" t="s">
+        <v>1707</v>
+      </c>
       <c r="L59" t="s">
         <v>300</v>
       </c>
@@ -27338,7 +27506,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>2261</v>
       </c>
@@ -27366,6 +27534,9 @@
       <c r="J60" t="s">
         <v>945</v>
       </c>
+      <c r="K60" t="s">
+        <v>1707</v>
+      </c>
       <c r="L60" t="s">
         <v>300</v>
       </c>
@@ -27376,7 +27547,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>2261</v>
       </c>
@@ -27404,6 +27575,9 @@
       <c r="J61" t="s">
         <v>945</v>
       </c>
+      <c r="K61" t="s">
+        <v>1707</v>
+      </c>
       <c r="L61" t="s">
         <v>300</v>
       </c>
@@ -27414,7 +27588,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>2261</v>
       </c>
@@ -27442,6 +27616,9 @@
       <c r="J62" t="s">
         <v>945</v>
       </c>
+      <c r="K62" t="s">
+        <v>1707</v>
+      </c>
       <c r="L62" t="s">
         <v>300</v>
       </c>
@@ -27452,7 +27629,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>2261</v>
       </c>
@@ -27480,6 +27657,9 @@
       <c r="J63" t="s">
         <v>945</v>
       </c>
+      <c r="K63" t="s">
+        <v>1707</v>
+      </c>
       <c r="L63" t="s">
         <v>300</v>
       </c>
@@ -27490,7 +27670,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>2261</v>
       </c>
@@ -27518,6 +27698,9 @@
       <c r="J64" t="s">
         <v>945</v>
       </c>
+      <c r="K64" t="s">
+        <v>1707</v>
+      </c>
       <c r="L64" t="s">
         <v>300</v>
       </c>
@@ -27528,7 +27711,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>2261</v>
       </c>
@@ -27556,6 +27739,9 @@
       <c r="J65" t="s">
         <v>945</v>
       </c>
+      <c r="K65" t="s">
+        <v>1707</v>
+      </c>
       <c r="L65" t="s">
         <v>300</v>
       </c>
@@ -27566,7 +27752,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>2261</v>
       </c>
@@ -27594,6 +27780,9 @@
       <c r="J66" t="s">
         <v>945</v>
       </c>
+      <c r="K66" t="s">
+        <v>1707</v>
+      </c>
       <c r="L66" t="s">
         <v>300</v>
       </c>
@@ -27604,7 +27793,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>2261</v>
       </c>
@@ -27632,6 +27821,9 @@
       <c r="J67" t="s">
         <v>945</v>
       </c>
+      <c r="K67" t="s">
+        <v>1707</v>
+      </c>
       <c r="L67" t="s">
         <v>300</v>
       </c>
@@ -27642,7 +27834,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>2261</v>
       </c>
@@ -27670,6 +27862,9 @@
       <c r="J68" t="s">
         <v>945</v>
       </c>
+      <c r="K68" t="s">
+        <v>1707</v>
+      </c>
       <c r="L68" t="s">
         <v>300</v>
       </c>
@@ -27680,7 +27875,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>2261</v>
       </c>
@@ -27708,6 +27903,9 @@
       <c r="J69" t="s">
         <v>945</v>
       </c>
+      <c r="K69" t="s">
+        <v>1707</v>
+      </c>
       <c r="L69" t="s">
         <v>300</v>
       </c>
@@ -27718,7 +27916,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>2261</v>
       </c>
@@ -27746,6 +27944,9 @@
       <c r="J70" t="s">
         <v>945</v>
       </c>
+      <c r="K70" t="s">
+        <v>1707</v>
+      </c>
       <c r="L70" t="s">
         <v>300</v>
       </c>
@@ -27756,7 +27957,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>2261</v>
       </c>
@@ -27784,6 +27985,9 @@
       <c r="J71" t="s">
         <v>945</v>
       </c>
+      <c r="K71" t="s">
+        <v>1707</v>
+      </c>
       <c r="L71" t="s">
         <v>300</v>
       </c>
@@ -27794,7 +27998,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>2261</v>
       </c>
@@ -27822,6 +28026,9 @@
       <c r="J72" t="s">
         <v>945</v>
       </c>
+      <c r="K72" t="s">
+        <v>1707</v>
+      </c>
       <c r="L72" t="s">
         <v>300</v>
       </c>
@@ -27832,7 +28039,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>2261</v>
       </c>
@@ -27860,6 +28067,9 @@
       <c r="J73" t="s">
         <v>945</v>
       </c>
+      <c r="K73" t="s">
+        <v>1707</v>
+      </c>
       <c r="L73" t="s">
         <v>300</v>
       </c>
@@ -27867,7 +28077,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>2261</v>
       </c>
@@ -27895,6 +28105,9 @@
       <c r="J74" t="s">
         <v>945</v>
       </c>
+      <c r="K74" t="s">
+        <v>1707</v>
+      </c>
       <c r="L74" t="s">
         <v>300</v>
       </c>
@@ -27902,7 +28115,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>2261</v>
       </c>
@@ -27930,6 +28143,9 @@
       <c r="J75" t="s">
         <v>945</v>
       </c>
+      <c r="K75" t="s">
+        <v>1707</v>
+      </c>
       <c r="L75" t="s">
         <v>300</v>
       </c>
@@ -27937,7 +28153,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>2261</v>
       </c>
@@ -27965,6 +28181,9 @@
       <c r="J76" t="s">
         <v>945</v>
       </c>
+      <c r="K76" t="s">
+        <v>1707</v>
+      </c>
       <c r="L76" t="s">
         <v>300</v>
       </c>
@@ -27972,7 +28191,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>2261</v>
       </c>
@@ -28000,6 +28219,9 @@
       <c r="J77" t="s">
         <v>945</v>
       </c>
+      <c r="K77" t="s">
+        <v>1707</v>
+      </c>
       <c r="L77" t="s">
         <v>300</v>
       </c>
@@ -28007,7 +28229,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>2261</v>
       </c>
@@ -28035,6 +28257,9 @@
       <c r="J78" t="s">
         <v>945</v>
       </c>
+      <c r="K78" t="s">
+        <v>1707</v>
+      </c>
       <c r="L78" t="s">
         <v>300</v>
       </c>
@@ -28042,7 +28267,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>2261</v>
       </c>
@@ -28070,6 +28295,9 @@
       <c r="J79" t="s">
         <v>945</v>
       </c>
+      <c r="K79" t="s">
+        <v>1707</v>
+      </c>
       <c r="L79" t="s">
         <v>300</v>
       </c>
@@ -28077,7 +28305,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>2261</v>
       </c>
@@ -28105,6 +28333,9 @@
       <c r="J80" t="s">
         <v>945</v>
       </c>
+      <c r="K80" t="s">
+        <v>1707</v>
+      </c>
       <c r="L80" t="s">
         <v>300</v>
       </c>
@@ -28112,7 +28343,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>2261</v>
       </c>
@@ -28140,6 +28371,9 @@
       <c r="J81" t="s">
         <v>945</v>
       </c>
+      <c r="K81" t="s">
+        <v>1707</v>
+      </c>
       <c r="L81" t="s">
         <v>300</v>
       </c>
@@ -28147,7 +28381,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>2261</v>
       </c>
@@ -28175,6 +28409,9 @@
       <c r="J82" t="s">
         <v>945</v>
       </c>
+      <c r="K82" t="s">
+        <v>1707</v>
+      </c>
       <c r="L82" t="s">
         <v>300</v>
       </c>
@@ -28182,7 +28419,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>2261</v>
       </c>
@@ -28210,6 +28447,9 @@
       <c r="J83" t="s">
         <v>945</v>
       </c>
+      <c r="K83" t="s">
+        <v>1707</v>
+      </c>
       <c r="L83" t="s">
         <v>300</v>
       </c>
@@ -28217,7 +28457,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>2261</v>
       </c>
@@ -28245,6 +28485,9 @@
       <c r="J84" t="s">
         <v>945</v>
       </c>
+      <c r="K84" t="s">
+        <v>1707</v>
+      </c>
       <c r="L84" t="s">
         <v>300</v>
       </c>
@@ -28252,7 +28495,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>2261</v>
       </c>
@@ -28280,6 +28523,9 @@
       <c r="J85" t="s">
         <v>945</v>
       </c>
+      <c r="K85" t="s">
+        <v>1707</v>
+      </c>
       <c r="L85" t="s">
         <v>300</v>
       </c>
@@ -28287,7 +28533,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>2261</v>
       </c>
@@ -28315,6 +28561,9 @@
       <c r="J86" t="s">
         <v>945</v>
       </c>
+      <c r="K86" t="s">
+        <v>1707</v>
+      </c>
       <c r="L86" t="s">
         <v>300</v>
       </c>
@@ -28322,7 +28571,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>2261</v>
       </c>
@@ -28350,6 +28599,9 @@
       <c r="J87" t="s">
         <v>945</v>
       </c>
+      <c r="K87" t="s">
+        <v>1707</v>
+      </c>
       <c r="L87" t="s">
         <v>300</v>
       </c>
@@ -28357,7 +28609,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>2261</v>
       </c>
@@ -28385,6 +28637,9 @@
       <c r="J88" t="s">
         <v>945</v>
       </c>
+      <c r="K88" t="s">
+        <v>1707</v>
+      </c>
       <c r="L88" t="s">
         <v>300</v>
       </c>
@@ -28392,7 +28647,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>2261</v>
       </c>
@@ -28420,6 +28675,9 @@
       <c r="J89" t="s">
         <v>945</v>
       </c>
+      <c r="K89" t="s">
+        <v>1707</v>
+      </c>
       <c r="L89" t="s">
         <v>300</v>
       </c>
@@ -28427,7 +28685,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>2261</v>
       </c>
@@ -28455,6 +28713,9 @@
       <c r="J90" t="s">
         <v>945</v>
       </c>
+      <c r="K90" t="s">
+        <v>1707</v>
+      </c>
       <c r="L90" t="s">
         <v>300</v>
       </c>
@@ -28462,7 +28723,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>2261</v>
       </c>
@@ -28490,6 +28751,9 @@
       <c r="J91" t="s">
         <v>945</v>
       </c>
+      <c r="K91" t="s">
+        <v>1707</v>
+      </c>
       <c r="L91" t="s">
         <v>300</v>
       </c>
@@ -28497,7 +28761,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>2261</v>
       </c>
@@ -28525,6 +28789,9 @@
       <c r="J92" t="s">
         <v>945</v>
       </c>
+      <c r="K92" t="s">
+        <v>1707</v>
+      </c>
       <c r="L92" t="s">
         <v>300</v>
       </c>
@@ -28532,7 +28799,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>2261</v>
       </c>
@@ -28560,6 +28827,9 @@
       <c r="J93" t="s">
         <v>945</v>
       </c>
+      <c r="K93" t="s">
+        <v>1707</v>
+      </c>
       <c r="L93" t="s">
         <v>300</v>
       </c>
@@ -28567,7 +28837,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>2261</v>
       </c>
@@ -28595,6 +28865,9 @@
       <c r="J94" t="s">
         <v>945</v>
       </c>
+      <c r="K94" t="s">
+        <v>1707</v>
+      </c>
       <c r="L94" t="s">
         <v>300</v>
       </c>
@@ -28602,7 +28875,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>2261</v>
       </c>
@@ -28630,6 +28903,9 @@
       <c r="J95" t="s">
         <v>945</v>
       </c>
+      <c r="K95" t="s">
+        <v>1707</v>
+      </c>
       <c r="L95" t="s">
         <v>300</v>
       </c>
@@ -28637,7 +28913,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>2261</v>
       </c>
@@ -28665,6 +28941,9 @@
       <c r="J96" t="s">
         <v>945</v>
       </c>
+      <c r="K96" t="s">
+        <v>1707</v>
+      </c>
       <c r="L96" t="s">
         <v>300</v>
       </c>
@@ -28672,7 +28951,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>2261</v>
       </c>
@@ -28700,6 +28979,9 @@
       <c r="J97" t="s">
         <v>945</v>
       </c>
+      <c r="K97" t="s">
+        <v>1707</v>
+      </c>
       <c r="L97" t="s">
         <v>300</v>
       </c>
@@ -28707,7 +28989,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>2261</v>
       </c>
@@ -28735,6 +29017,9 @@
       <c r="J98" t="s">
         <v>945</v>
       </c>
+      <c r="K98" t="s">
+        <v>1707</v>
+      </c>
       <c r="L98" t="s">
         <v>300</v>
       </c>
@@ -28745,7 +29030,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>2261</v>
       </c>
@@ -28773,6 +29058,9 @@
       <c r="J99" t="s">
         <v>945</v>
       </c>
+      <c r="K99" t="s">
+        <v>1707</v>
+      </c>
       <c r="L99" t="s">
         <v>300</v>
       </c>
@@ -28783,7 +29071,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>2261</v>
       </c>
@@ -28811,6 +29099,9 @@
       <c r="J100" t="s">
         <v>945</v>
       </c>
+      <c r="K100" t="s">
+        <v>1707</v>
+      </c>
       <c r="L100" t="s">
         <v>300</v>
       </c>
@@ -28821,7 +29112,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>2261</v>
       </c>
@@ -28849,6 +29140,9 @@
       <c r="J101" t="s">
         <v>945</v>
       </c>
+      <c r="K101" t="s">
+        <v>1707</v>
+      </c>
       <c r="L101" t="s">
         <v>300</v>
       </c>
@@ -28859,7 +29153,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>2261</v>
       </c>
@@ -28887,6 +29181,9 @@
       <c r="J102" t="s">
         <v>945</v>
       </c>
+      <c r="K102" t="s">
+        <v>1707</v>
+      </c>
       <c r="L102" t="s">
         <v>300</v>
       </c>
@@ -28897,7 +29194,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>2261</v>
       </c>
@@ -28925,6 +29222,9 @@
       <c r="J103" t="s">
         <v>945</v>
       </c>
+      <c r="K103" t="s">
+        <v>1707</v>
+      </c>
       <c r="L103" t="s">
         <v>300</v>
       </c>
@@ -28935,7 +29235,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>2261</v>
       </c>
@@ -28963,6 +29263,9 @@
       <c r="J104" t="s">
         <v>945</v>
       </c>
+      <c r="K104" t="s">
+        <v>1707</v>
+      </c>
       <c r="L104" t="s">
         <v>300</v>
       </c>
@@ -28973,7 +29276,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>2261</v>
       </c>
@@ -29001,6 +29304,9 @@
       <c r="J105" t="s">
         <v>945</v>
       </c>
+      <c r="K105" t="s">
+        <v>1707</v>
+      </c>
       <c r="L105" t="s">
         <v>300</v>
       </c>
@@ -29011,7 +29317,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>2261</v>
       </c>
@@ -29039,6 +29345,9 @@
       <c r="J106" t="s">
         <v>945</v>
       </c>
+      <c r="K106" t="s">
+        <v>1707</v>
+      </c>
       <c r="L106" t="s">
         <v>300</v>
       </c>
@@ -29049,7 +29358,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>2261</v>
       </c>
@@ -29077,6 +29386,9 @@
       <c r="J107" t="s">
         <v>945</v>
       </c>
+      <c r="K107" t="s">
+        <v>1707</v>
+      </c>
       <c r="L107" t="s">
         <v>300</v>
       </c>
@@ -29087,7 +29399,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>2261</v>
       </c>
@@ -29115,6 +29427,9 @@
       <c r="J108" t="s">
         <v>945</v>
       </c>
+      <c r="K108" t="s">
+        <v>1707</v>
+      </c>
       <c r="L108" t="s">
         <v>300</v>
       </c>
@@ -29125,7 +29440,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>2261</v>
       </c>
@@ -29153,6 +29468,9 @@
       <c r="J109" t="s">
         <v>945</v>
       </c>
+      <c r="K109" t="s">
+        <v>1707</v>
+      </c>
       <c r="L109" t="s">
         <v>300</v>
       </c>
@@ -29163,7 +29481,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>2261</v>
       </c>
@@ -29191,6 +29509,9 @@
       <c r="J110" t="s">
         <v>945</v>
       </c>
+      <c r="K110" t="s">
+        <v>1707</v>
+      </c>
       <c r="L110" t="s">
         <v>300</v>
       </c>
@@ -29201,7 +29522,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>2261</v>
       </c>
@@ -29229,6 +29550,9 @@
       <c r="J111" t="s">
         <v>945</v>
       </c>
+      <c r="K111" t="s">
+        <v>1707</v>
+      </c>
       <c r="L111" t="s">
         <v>300</v>
       </c>
@@ -29239,7 +29563,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>2261</v>
       </c>
@@ -29267,6 +29591,9 @@
       <c r="J112" t="s">
         <v>945</v>
       </c>
+      <c r="K112" t="s">
+        <v>1707</v>
+      </c>
       <c r="L112" t="s">
         <v>300</v>
       </c>
@@ -29277,7 +29604,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>2261</v>
       </c>
@@ -29305,6 +29632,9 @@
       <c r="J113" t="s">
         <v>945</v>
       </c>
+      <c r="K113" t="s">
+        <v>1707</v>
+      </c>
       <c r="L113" t="s">
         <v>300</v>
       </c>
@@ -29315,7 +29645,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>2261</v>
       </c>
@@ -29343,6 +29673,9 @@
       <c r="J114" t="s">
         <v>945</v>
       </c>
+      <c r="K114" t="s">
+        <v>1707</v>
+      </c>
       <c r="L114" t="s">
         <v>300</v>
       </c>
@@ -29353,7 +29686,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>2261</v>
       </c>
@@ -29381,6 +29714,9 @@
       <c r="J115" t="s">
         <v>945</v>
       </c>
+      <c r="K115" t="s">
+        <v>1707</v>
+      </c>
       <c r="L115" t="s">
         <v>300</v>
       </c>
@@ -29391,7 +29727,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>2261</v>
       </c>
@@ -29419,6 +29755,9 @@
       <c r="J116" t="s">
         <v>945</v>
       </c>
+      <c r="K116" t="s">
+        <v>1707</v>
+      </c>
       <c r="L116" t="s">
         <v>300</v>
       </c>
@@ -29429,7 +29768,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>2261</v>
       </c>
@@ -29457,6 +29796,9 @@
       <c r="J117" t="s">
         <v>945</v>
       </c>
+      <c r="K117" t="s">
+        <v>1707</v>
+      </c>
       <c r="L117" t="s">
         <v>300</v>
       </c>
@@ -29467,7 +29809,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>2261</v>
       </c>
@@ -29495,6 +29837,9 @@
       <c r="J118" t="s">
         <v>945</v>
       </c>
+      <c r="K118" t="s">
+        <v>1707</v>
+      </c>
       <c r="L118" t="s">
         <v>300</v>
       </c>
@@ -29505,7 +29850,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>2261</v>
       </c>
@@ -29533,6 +29878,9 @@
       <c r="J119" t="s">
         <v>945</v>
       </c>
+      <c r="K119" t="s">
+        <v>1707</v>
+      </c>
       <c r="L119" t="s">
         <v>300</v>
       </c>
@@ -29543,7 +29891,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>2261</v>
       </c>
@@ -29571,6 +29919,9 @@
       <c r="J120" t="s">
         <v>945</v>
       </c>
+      <c r="K120" t="s">
+        <v>1707</v>
+      </c>
       <c r="L120" t="s">
         <v>300</v>
       </c>
@@ -29581,7 +29932,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>2261</v>
       </c>
@@ -29609,6 +29960,9 @@
       <c r="J121" t="s">
         <v>945</v>
       </c>
+      <c r="K121" t="s">
+        <v>1707</v>
+      </c>
       <c r="L121" t="s">
         <v>300</v>
       </c>
@@ -29619,7 +29973,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>2261</v>
       </c>
@@ -29647,6 +30001,9 @@
       <c r="J122" t="s">
         <v>945</v>
       </c>
+      <c r="K122" t="s">
+        <v>1707</v>
+      </c>
       <c r="L122" t="s">
         <v>300</v>
       </c>
@@ -29657,7 +30014,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>2261</v>
       </c>
@@ -29685,6 +30042,9 @@
       <c r="J123" t="s">
         <v>945</v>
       </c>
+      <c r="K123" t="s">
+        <v>1707</v>
+      </c>
       <c r="L123" t="s">
         <v>300</v>
       </c>
@@ -29695,7 +30055,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>2261</v>
       </c>
@@ -29723,6 +30083,9 @@
       <c r="J124" t="s">
         <v>945</v>
       </c>
+      <c r="K124" t="s">
+        <v>1707</v>
+      </c>
       <c r="L124" t="s">
         <v>300</v>
       </c>
@@ -29733,7 +30096,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>2261</v>
       </c>
@@ -29761,6 +30124,9 @@
       <c r="J125" t="s">
         <v>945</v>
       </c>
+      <c r="K125" t="s">
+        <v>1707</v>
+      </c>
       <c r="L125" t="s">
         <v>300</v>
       </c>
@@ -29771,7 +30137,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>2261</v>
       </c>
@@ -29799,6 +30165,9 @@
       <c r="J126" t="s">
         <v>945</v>
       </c>
+      <c r="K126" t="s">
+        <v>1707</v>
+      </c>
       <c r="L126" t="s">
         <v>300</v>
       </c>
@@ -29809,7 +30178,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>2261</v>
       </c>
@@ -29837,6 +30206,9 @@
       <c r="J127" t="s">
         <v>945</v>
       </c>
+      <c r="K127" t="s">
+        <v>1707</v>
+      </c>
       <c r="L127" t="s">
         <v>300</v>
       </c>
@@ -29847,7 +30219,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>2261</v>
       </c>
@@ -29875,6 +30247,9 @@
       <c r="J128" t="s">
         <v>945</v>
       </c>
+      <c r="K128" t="s">
+        <v>1707</v>
+      </c>
       <c r="L128" t="s">
         <v>300</v>
       </c>
@@ -29885,7 +30260,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>2261</v>
       </c>
@@ -29913,6 +30288,9 @@
       <c r="J129" t="s">
         <v>945</v>
       </c>
+      <c r="K129" t="s">
+        <v>1707</v>
+      </c>
       <c r="L129" t="s">
         <v>300</v>
       </c>
@@ -29923,7 +30301,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>2261</v>
       </c>
@@ -29951,6 +30329,9 @@
       <c r="J130" t="s">
         <v>945</v>
       </c>
+      <c r="K130" t="s">
+        <v>1707</v>
+      </c>
       <c r="L130" t="s">
         <v>300</v>
       </c>
@@ -29961,7 +30342,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>2261</v>
       </c>
@@ -29989,6 +30370,9 @@
       <c r="J131" t="s">
         <v>945</v>
       </c>
+      <c r="K131" t="s">
+        <v>1707</v>
+      </c>
       <c r="L131" t="s">
         <v>300</v>
       </c>
@@ -29999,7 +30383,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>2261</v>
       </c>
@@ -30027,6 +30411,9 @@
       <c r="J132" t="s">
         <v>945</v>
       </c>
+      <c r="K132" t="s">
+        <v>1707</v>
+      </c>
       <c r="L132" t="s">
         <v>300</v>
       </c>
@@ -30037,7 +30424,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>2261</v>
       </c>
@@ -30065,6 +30452,9 @@
       <c r="J133" t="s">
         <v>945</v>
       </c>
+      <c r="K133" t="s">
+        <v>1707</v>
+      </c>
       <c r="L133" t="s">
         <v>300</v>
       </c>
@@ -30075,7 +30465,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>2261</v>
       </c>
@@ -30103,6 +30493,9 @@
       <c r="J134" t="s">
         <v>945</v>
       </c>
+      <c r="K134" t="s">
+        <v>1707</v>
+      </c>
       <c r="L134" t="s">
         <v>300</v>
       </c>
@@ -30113,7 +30506,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>2261</v>
       </c>
@@ -30141,6 +30534,9 @@
       <c r="J135" t="s">
         <v>945</v>
       </c>
+      <c r="K135" t="s">
+        <v>1707</v>
+      </c>
       <c r="L135" t="s">
         <v>300</v>
       </c>
@@ -30151,7 +30547,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>2261</v>
       </c>
@@ -30179,6 +30575,9 @@
       <c r="J136" t="s">
         <v>945</v>
       </c>
+      <c r="K136" t="s">
+        <v>1707</v>
+      </c>
       <c r="L136" t="s">
         <v>300</v>
       </c>
@@ -30189,7 +30588,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>2261</v>
       </c>
@@ -30217,6 +30616,9 @@
       <c r="J137" t="s">
         <v>945</v>
       </c>
+      <c r="K137" t="s">
+        <v>1707</v>
+      </c>
       <c r="L137" t="s">
         <v>300</v>
       </c>
@@ -30227,7 +30629,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>2261</v>
       </c>
@@ -30255,6 +30657,9 @@
       <c r="J138" t="s">
         <v>945</v>
       </c>
+      <c r="K138" t="s">
+        <v>1707</v>
+      </c>
       <c r="L138" t="s">
         <v>300</v>
       </c>
@@ -30265,7 +30670,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>2261</v>
       </c>
@@ -30293,6 +30698,9 @@
       <c r="J139" t="s">
         <v>945</v>
       </c>
+      <c r="K139" t="s">
+        <v>1707</v>
+      </c>
       <c r="L139" t="s">
         <v>300</v>
       </c>
@@ -30303,7 +30711,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>2261</v>
       </c>
@@ -30331,6 +30739,9 @@
       <c r="J140" t="s">
         <v>945</v>
       </c>
+      <c r="K140" t="s">
+        <v>1707</v>
+      </c>
       <c r="L140" t="s">
         <v>300</v>
       </c>
@@ -30341,7 +30752,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>2261</v>
       </c>
@@ -30369,6 +30780,9 @@
       <c r="J141" t="s">
         <v>945</v>
       </c>
+      <c r="K141" t="s">
+        <v>1707</v>
+      </c>
       <c r="L141" t="s">
         <v>300</v>
       </c>
@@ -30379,7 +30793,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>2261</v>
       </c>
@@ -30407,6 +30821,9 @@
       <c r="J142" t="s">
         <v>945</v>
       </c>
+      <c r="K142" t="s">
+        <v>1707</v>
+      </c>
       <c r="L142" t="s">
         <v>300</v>
       </c>
@@ -30417,7 +30834,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>2261</v>
       </c>
@@ -30445,6 +30862,9 @@
       <c r="J143" t="s">
         <v>945</v>
       </c>
+      <c r="K143" t="s">
+        <v>1707</v>
+      </c>
       <c r="L143" t="s">
         <v>300</v>
       </c>
@@ -30455,7 +30875,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>2261</v>
       </c>
@@ -30483,6 +30903,9 @@
       <c r="J144" t="s">
         <v>945</v>
       </c>
+      <c r="K144" t="s">
+        <v>1707</v>
+      </c>
       <c r="L144" t="s">
         <v>300</v>
       </c>
@@ -30493,7 +30916,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>2261</v>
       </c>
@@ -30521,6 +30944,9 @@
       <c r="J145" t="s">
         <v>945</v>
       </c>
+      <c r="K145" t="s">
+        <v>1707</v>
+      </c>
       <c r="L145" t="s">
         <v>300</v>
       </c>
@@ -30531,7 +30957,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>2261</v>
       </c>
@@ -30559,6 +30985,9 @@
       <c r="J146" t="s">
         <v>945</v>
       </c>
+      <c r="K146" t="s">
+        <v>1707</v>
+      </c>
       <c r="L146" t="s">
         <v>300</v>
       </c>
@@ -30569,7 +30998,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>2261</v>
       </c>
@@ -30597,6 +31026,9 @@
       <c r="J147" t="s">
         <v>945</v>
       </c>
+      <c r="K147" t="s">
+        <v>1707</v>
+      </c>
       <c r="L147" t="s">
         <v>300</v>
       </c>
@@ -30607,7 +31039,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>2261</v>
       </c>
@@ -30635,6 +31067,9 @@
       <c r="J148" t="s">
         <v>945</v>
       </c>
+      <c r="K148" t="s">
+        <v>1707</v>
+      </c>
       <c r="L148" t="s">
         <v>300</v>
       </c>
@@ -30645,7 +31080,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>2261</v>
       </c>
@@ -30673,6 +31108,9 @@
       <c r="J149" t="s">
         <v>945</v>
       </c>
+      <c r="K149" t="s">
+        <v>1707</v>
+      </c>
       <c r="L149" t="s">
         <v>300</v>
       </c>
@@ -30683,7 +31121,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>2261</v>
       </c>
@@ -30711,6 +31149,9 @@
       <c r="J150" t="s">
         <v>945</v>
       </c>
+      <c r="K150" t="s">
+        <v>1707</v>
+      </c>
       <c r="L150" t="s">
         <v>300</v>
       </c>
@@ -30721,7 +31162,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>2261</v>
       </c>
@@ -30749,6 +31190,9 @@
       <c r="J151" t="s">
         <v>945</v>
       </c>
+      <c r="K151" t="s">
+        <v>1707</v>
+      </c>
       <c r="L151" t="s">
         <v>300</v>
       </c>
@@ -30759,7 +31203,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>2261</v>
       </c>
@@ -30787,6 +31231,9 @@
       <c r="J152" t="s">
         <v>945</v>
       </c>
+      <c r="K152" t="s">
+        <v>1707</v>
+      </c>
       <c r="L152" t="s">
         <v>300</v>
       </c>
@@ -30797,7 +31244,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>2261</v>
       </c>
@@ -30825,6 +31272,9 @@
       <c r="J153" t="s">
         <v>945</v>
       </c>
+      <c r="K153" t="s">
+        <v>1707</v>
+      </c>
       <c r="L153" t="s">
         <v>300</v>
       </c>
@@ -30835,7 +31285,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>2261</v>
       </c>
@@ -30863,6 +31313,9 @@
       <c r="J154" t="s">
         <v>945</v>
       </c>
+      <c r="K154" t="s">
+        <v>1707</v>
+      </c>
       <c r="L154" t="s">
         <v>300</v>
       </c>
@@ -30873,7 +31326,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>2261</v>
       </c>
@@ -30901,6 +31354,9 @@
       <c r="J155" t="s">
         <v>945</v>
       </c>
+      <c r="K155" t="s">
+        <v>1707</v>
+      </c>
       <c r="L155" t="s">
         <v>300</v>
       </c>
@@ -30911,7 +31367,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>2261</v>
       </c>
@@ -30939,6 +31395,9 @@
       <c r="J156" t="s">
         <v>945</v>
       </c>
+      <c r="K156" t="s">
+        <v>1707</v>
+      </c>
       <c r="L156" t="s">
         <v>300</v>
       </c>
@@ -30949,7 +31408,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>2261</v>
       </c>
@@ -30977,6 +31436,9 @@
       <c r="J157" t="s">
         <v>945</v>
       </c>
+      <c r="K157" t="s">
+        <v>1707</v>
+      </c>
       <c r="L157" t="s">
         <v>300</v>
       </c>
@@ -30987,7 +31449,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>2261</v>
       </c>
@@ -31015,6 +31477,9 @@
       <c r="J158" t="s">
         <v>945</v>
       </c>
+      <c r="K158" t="s">
+        <v>1707</v>
+      </c>
       <c r="L158" t="s">
         <v>300</v>
       </c>
@@ -31025,7 +31490,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>2261</v>
       </c>
@@ -31053,6 +31518,9 @@
       <c r="J159" t="s">
         <v>945</v>
       </c>
+      <c r="K159" t="s">
+        <v>1707</v>
+      </c>
       <c r="L159" t="s">
         <v>300</v>
       </c>
@@ -31063,7 +31531,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>2261</v>
       </c>
@@ -31091,6 +31559,9 @@
       <c r="J160" t="s">
         <v>945</v>
       </c>
+      <c r="K160" t="s">
+        <v>1707</v>
+      </c>
       <c r="L160" t="s">
         <v>300</v>
       </c>
@@ -31101,7 +31572,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>2261</v>
       </c>
@@ -31129,6 +31600,9 @@
       <c r="J161" t="s">
         <v>945</v>
       </c>
+      <c r="K161" t="s">
+        <v>1707</v>
+      </c>
       <c r="L161" t="s">
         <v>300</v>
       </c>
@@ -31139,7 +31613,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>2261</v>
       </c>
@@ -31167,6 +31641,9 @@
       <c r="J162" t="s">
         <v>945</v>
       </c>
+      <c r="K162" t="s">
+        <v>1707</v>
+      </c>
       <c r="L162" t="s">
         <v>300</v>
       </c>
@@ -31177,7 +31654,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>2261</v>
       </c>
@@ -31205,6 +31682,9 @@
       <c r="J163" t="s">
         <v>945</v>
       </c>
+      <c r="K163" t="s">
+        <v>1707</v>
+      </c>
       <c r="L163" t="s">
         <v>300</v>
       </c>
@@ -31215,7 +31695,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>2261</v>
       </c>
@@ -31243,6 +31723,9 @@
       <c r="J164" t="s">
         <v>945</v>
       </c>
+      <c r="K164" t="s">
+        <v>1707</v>
+      </c>
       <c r="L164" t="s">
         <v>300</v>
       </c>
@@ -31253,7 +31736,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>2261</v>
       </c>
@@ -31281,6 +31764,9 @@
       <c r="J165" t="s">
         <v>945</v>
       </c>
+      <c r="K165" t="s">
+        <v>1707</v>
+      </c>
       <c r="L165" t="s">
         <v>300</v>
       </c>
@@ -31291,7 +31777,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>2261</v>
       </c>
@@ -31319,6 +31805,9 @@
       <c r="J166" t="s">
         <v>945</v>
       </c>
+      <c r="K166" t="s">
+        <v>1707</v>
+      </c>
       <c r="L166" t="s">
         <v>300</v>
       </c>
@@ -31329,7 +31818,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>2261</v>
       </c>
@@ -31357,6 +31846,9 @@
       <c r="J167" t="s">
         <v>945</v>
       </c>
+      <c r="K167" t="s">
+        <v>1707</v>
+      </c>
       <c r="L167" t="s">
         <v>300</v>
       </c>
@@ -31367,7 +31859,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>2261</v>
       </c>
@@ -31395,6 +31887,9 @@
       <c r="J168" t="s">
         <v>945</v>
       </c>
+      <c r="K168" t="s">
+        <v>1707</v>
+      </c>
       <c r="L168" t="s">
         <v>300</v>
       </c>
@@ -31405,7 +31900,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>2261</v>
       </c>
@@ -31433,6 +31928,9 @@
       <c r="J169" t="s">
         <v>945</v>
       </c>
+      <c r="K169" t="s">
+        <v>1707</v>
+      </c>
       <c r="L169" t="s">
         <v>300</v>
       </c>
@@ -31443,7 +31941,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>2261</v>
       </c>
@@ -31471,6 +31969,9 @@
       <c r="J170" t="s">
         <v>945</v>
       </c>
+      <c r="K170" t="s">
+        <v>1707</v>
+      </c>
       <c r="L170" t="s">
         <v>300</v>
       </c>
@@ -31481,7 +31982,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>2261</v>
       </c>
@@ -31509,6 +32010,9 @@
       <c r="J171" t="s">
         <v>945</v>
       </c>
+      <c r="K171" t="s">
+        <v>1707</v>
+      </c>
       <c r="L171" t="s">
         <v>300</v>
       </c>
@@ -31519,7 +32023,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>2261</v>
       </c>
@@ -31547,6 +32051,9 @@
       <c r="J172" t="s">
         <v>945</v>
       </c>
+      <c r="K172" t="s">
+        <v>1707</v>
+      </c>
       <c r="L172" t="s">
         <v>300</v>
       </c>
@@ -31557,7 +32064,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>2261</v>
       </c>
@@ -31585,6 +32092,9 @@
       <c r="J173" t="s">
         <v>945</v>
       </c>
+      <c r="K173" t="s">
+        <v>1707</v>
+      </c>
       <c r="L173" t="s">
         <v>300</v>
       </c>
@@ -31595,7 +32105,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>2261</v>
       </c>
@@ -31623,6 +32133,9 @@
       <c r="J174" t="s">
         <v>945</v>
       </c>
+      <c r="K174" t="s">
+        <v>1707</v>
+      </c>
       <c r="L174" t="s">
         <v>300</v>
       </c>
@@ -31633,7 +32146,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>2261</v>
       </c>
@@ -31661,6 +32174,9 @@
       <c r="J175" t="s">
         <v>945</v>
       </c>
+      <c r="K175" t="s">
+        <v>1707</v>
+      </c>
       <c r="L175" t="s">
         <v>300</v>
       </c>
@@ -31671,7 +32187,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>2261</v>
       </c>
@@ -31699,6 +32215,9 @@
       <c r="J176" t="s">
         <v>945</v>
       </c>
+      <c r="K176" t="s">
+        <v>1707</v>
+      </c>
       <c r="L176" t="s">
         <v>300</v>
       </c>
@@ -31709,7 +32228,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>2261</v>
       </c>
@@ -31737,6 +32256,9 @@
       <c r="J177" t="s">
         <v>945</v>
       </c>
+      <c r="K177" t="s">
+        <v>1707</v>
+      </c>
       <c r="L177" t="s">
         <v>300</v>
       </c>
@@ -31747,7 +32269,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>2261</v>
       </c>
@@ -31775,6 +32297,9 @@
       <c r="J178" t="s">
         <v>945</v>
       </c>
+      <c r="K178" t="s">
+        <v>1707</v>
+      </c>
       <c r="L178" t="s">
         <v>300</v>
       </c>
@@ -31785,7 +32310,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>2261</v>
       </c>
@@ -31813,6 +32338,9 @@
       <c r="J179" t="s">
         <v>945</v>
       </c>
+      <c r="K179" t="s">
+        <v>1707</v>
+      </c>
       <c r="L179" t="s">
         <v>300</v>
       </c>
@@ -31823,7 +32351,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>2261</v>
       </c>
@@ -31851,6 +32379,9 @@
       <c r="J180" t="s">
         <v>945</v>
       </c>
+      <c r="K180" t="s">
+        <v>1707</v>
+      </c>
       <c r="L180" t="s">
         <v>300</v>
       </c>
@@ -31861,7 +32392,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>2261</v>
       </c>
@@ -31889,6 +32420,9 @@
       <c r="J181" t="s">
         <v>945</v>
       </c>
+      <c r="K181" t="s">
+        <v>1707</v>
+      </c>
       <c r="L181" t="s">
         <v>300</v>
       </c>
@@ -31899,7 +32433,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>2261</v>
       </c>
@@ -31927,6 +32461,9 @@
       <c r="J182" t="s">
         <v>945</v>
       </c>
+      <c r="K182" t="s">
+        <v>1707</v>
+      </c>
       <c r="L182" t="s">
         <v>300</v>
       </c>
@@ -31937,7 +32474,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>2261</v>
       </c>
@@ -31965,6 +32502,9 @@
       <c r="J183" t="s">
         <v>945</v>
       </c>
+      <c r="K183" t="s">
+        <v>1707</v>
+      </c>
       <c r="L183" t="s">
         <v>300</v>
       </c>
@@ -31975,7 +32515,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>2261</v>
       </c>
@@ -32003,6 +32543,9 @@
       <c r="J184" t="s">
         <v>945</v>
       </c>
+      <c r="K184" t="s">
+        <v>1707</v>
+      </c>
       <c r="L184" t="s">
         <v>300</v>
       </c>
@@ -32013,7 +32556,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>2261</v>
       </c>
@@ -32041,6 +32584,9 @@
       <c r="J185" t="s">
         <v>945</v>
       </c>
+      <c r="K185" t="s">
+        <v>1707</v>
+      </c>
       <c r="L185" t="s">
         <v>300</v>
       </c>
@@ -32051,7 +32597,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>2261</v>
       </c>
@@ -32079,6 +32625,9 @@
       <c r="J186" t="s">
         <v>945</v>
       </c>
+      <c r="K186" t="s">
+        <v>1707</v>
+      </c>
       <c r="L186" t="s">
         <v>300</v>
       </c>
@@ -32089,7 +32638,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>2261</v>
       </c>
@@ -32117,6 +32666,9 @@
       <c r="J187" t="s">
         <v>945</v>
       </c>
+      <c r="K187" t="s">
+        <v>1707</v>
+      </c>
       <c r="L187" t="s">
         <v>300</v>
       </c>
@@ -32127,7 +32679,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>2261</v>
       </c>
@@ -32155,6 +32707,9 @@
       <c r="J188" t="s">
         <v>945</v>
       </c>
+      <c r="K188" t="s">
+        <v>1707</v>
+      </c>
       <c r="L188" t="s">
         <v>300</v>
       </c>
@@ -32165,7 +32720,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>2261</v>
       </c>
@@ -32193,6 +32748,9 @@
       <c r="J189" t="s">
         <v>945</v>
       </c>
+      <c r="K189" t="s">
+        <v>1707</v>
+      </c>
       <c r="L189" t="s">
         <v>300</v>
       </c>
@@ -32203,7 +32761,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>2261</v>
       </c>
@@ -32231,6 +32789,9 @@
       <c r="J190" t="s">
         <v>945</v>
       </c>
+      <c r="K190" t="s">
+        <v>1707</v>
+      </c>
       <c r="L190" t="s">
         <v>300</v>
       </c>
@@ -32241,7 +32802,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>2261</v>
       </c>
@@ -32269,6 +32830,9 @@
       <c r="J191" t="s">
         <v>945</v>
       </c>
+      <c r="K191" t="s">
+        <v>1707</v>
+      </c>
       <c r="L191" t="s">
         <v>300</v>
       </c>
@@ -32279,7 +32843,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>2261</v>
       </c>
@@ -32307,6 +32871,9 @@
       <c r="J192" t="s">
         <v>945</v>
       </c>
+      <c r="K192" t="s">
+        <v>1707</v>
+      </c>
       <c r="L192" t="s">
         <v>300</v>
       </c>
@@ -32317,7 +32884,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>2261</v>
       </c>
@@ -32345,6 +32912,9 @@
       <c r="J193" t="s">
         <v>945</v>
       </c>
+      <c r="K193" t="s">
+        <v>1707</v>
+      </c>
       <c r="L193" t="s">
         <v>300</v>
       </c>
@@ -32355,7 +32925,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>2261</v>
       </c>
@@ -32383,6 +32953,9 @@
       <c r="J194" t="s">
         <v>945</v>
       </c>
+      <c r="K194" t="s">
+        <v>1707</v>
+      </c>
       <c r="L194" t="s">
         <v>300</v>
       </c>
@@ -32393,7 +32966,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>2261</v>
       </c>
@@ -32421,6 +32994,9 @@
       <c r="J195" t="s">
         <v>945</v>
       </c>
+      <c r="K195" t="s">
+        <v>1707</v>
+      </c>
       <c r="L195" t="s">
         <v>300</v>
       </c>
@@ -32431,7 +33007,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>2261</v>
       </c>
@@ -32459,6 +33035,9 @@
       <c r="J196" t="s">
         <v>945</v>
       </c>
+      <c r="K196" t="s">
+        <v>1707</v>
+      </c>
       <c r="L196" t="s">
         <v>300</v>
       </c>
@@ -32469,7 +33048,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>2261</v>
       </c>
@@ -32497,6 +33076,9 @@
       <c r="J197" t="s">
         <v>945</v>
       </c>
+      <c r="K197" t="s">
+        <v>1707</v>
+      </c>
       <c r="L197" t="s">
         <v>300</v>
       </c>
@@ -32507,7 +33089,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>2261</v>
       </c>
@@ -32535,6 +33117,9 @@
       <c r="J198" t="s">
         <v>945</v>
       </c>
+      <c r="K198" t="s">
+        <v>1707</v>
+      </c>
       <c r="L198" t="s">
         <v>300</v>
       </c>
@@ -32545,7 +33130,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>2261</v>
       </c>
@@ -32573,6 +33158,9 @@
       <c r="J199" t="s">
         <v>945</v>
       </c>
+      <c r="K199" t="s">
+        <v>1707</v>
+      </c>
       <c r="L199" t="s">
         <v>300</v>
       </c>
@@ -32583,7 +33171,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>2261</v>
       </c>
@@ -32611,6 +33199,9 @@
       <c r="J200" t="s">
         <v>945</v>
       </c>
+      <c r="K200" t="s">
+        <v>1707</v>
+      </c>
       <c r="L200" t="s">
         <v>300</v>
       </c>
@@ -32621,7 +33212,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>2261</v>
       </c>
@@ -32649,6 +33240,9 @@
       <c r="J201" t="s">
         <v>945</v>
       </c>
+      <c r="K201" t="s">
+        <v>1707</v>
+      </c>
       <c r="L201" t="s">
         <v>300</v>
       </c>
@@ -32659,7 +33253,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>2261</v>
       </c>
@@ -32687,6 +33281,9 @@
       <c r="J202" t="s">
         <v>945</v>
       </c>
+      <c r="K202" t="s">
+        <v>1707</v>
+      </c>
       <c r="L202" t="s">
         <v>300</v>
       </c>
@@ -32697,7 +33294,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>2261</v>
       </c>
@@ -32725,6 +33322,9 @@
       <c r="J203" t="s">
         <v>945</v>
       </c>
+      <c r="K203" t="s">
+        <v>1707</v>
+      </c>
       <c r="L203" t="s">
         <v>300</v>
       </c>
@@ -32735,7 +33335,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>2261</v>
       </c>
@@ -32763,6 +33363,9 @@
       <c r="J204" t="s">
         <v>945</v>
       </c>
+      <c r="K204" t="s">
+        <v>1707</v>
+      </c>
       <c r="L204" t="s">
         <v>300</v>
       </c>
@@ -32773,7 +33376,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>2261</v>
       </c>
@@ -32801,6 +33404,9 @@
       <c r="J205" t="s">
         <v>945</v>
       </c>
+      <c r="K205" t="s">
+        <v>1707</v>
+      </c>
       <c r="L205" t="s">
         <v>300</v>
       </c>
@@ -32811,7 +33417,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>2261</v>
       </c>
@@ -32839,6 +33445,9 @@
       <c r="J206" t="s">
         <v>945</v>
       </c>
+      <c r="K206" t="s">
+        <v>1707</v>
+      </c>
       <c r="L206" t="s">
         <v>300</v>
       </c>
@@ -32849,7 +33458,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>2261</v>
       </c>
@@ -32877,6 +33486,9 @@
       <c r="J207" t="s">
         <v>945</v>
       </c>
+      <c r="K207" t="s">
+        <v>1707</v>
+      </c>
       <c r="L207" t="s">
         <v>300</v>
       </c>
@@ -32887,7 +33499,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>2261</v>
       </c>
@@ -32915,6 +33527,9 @@
       <c r="J208" t="s">
         <v>945</v>
       </c>
+      <c r="K208" t="s">
+        <v>1707</v>
+      </c>
       <c r="L208" t="s">
         <v>300</v>
       </c>
@@ -32925,7 +33540,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>2261</v>
       </c>
@@ -32953,6 +33568,9 @@
       <c r="J209" t="s">
         <v>945</v>
       </c>
+      <c r="K209" t="s">
+        <v>1707</v>
+      </c>
       <c r="L209" t="s">
         <v>300</v>
       </c>
@@ -32963,7 +33581,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>2261</v>
       </c>
@@ -32991,6 +33609,9 @@
       <c r="J210" t="s">
         <v>945</v>
       </c>
+      <c r="K210" t="s">
+        <v>1707</v>
+      </c>
       <c r="L210" t="s">
         <v>300</v>
       </c>
@@ -33001,7 +33622,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>2261</v>
       </c>
@@ -33029,6 +33650,9 @@
       <c r="J211" t="s">
         <v>945</v>
       </c>
+      <c r="K211" t="s">
+        <v>1707</v>
+      </c>
       <c r="L211" t="s">
         <v>300</v>
       </c>
@@ -33039,7 +33663,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>2261</v>
       </c>
@@ -33067,6 +33691,9 @@
       <c r="J212" t="s">
         <v>945</v>
       </c>
+      <c r="K212" t="s">
+        <v>1707</v>
+      </c>
       <c r="L212" t="s">
         <v>300</v>
       </c>
@@ -33077,7 +33704,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>2261</v>
       </c>
@@ -33105,6 +33732,9 @@
       <c r="J213" t="s">
         <v>945</v>
       </c>
+      <c r="K213" t="s">
+        <v>1707</v>
+      </c>
       <c r="L213" t="s">
         <v>300</v>
       </c>
@@ -33115,7 +33745,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>2261</v>
       </c>
@@ -33143,6 +33773,9 @@
       <c r="J214" t="s">
         <v>945</v>
       </c>
+      <c r="K214" t="s">
+        <v>1707</v>
+      </c>
       <c r="L214" t="s">
         <v>300</v>
       </c>
@@ -33153,7 +33786,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>2261</v>
       </c>
@@ -33181,6 +33814,9 @@
       <c r="J215" t="s">
         <v>945</v>
       </c>
+      <c r="K215" t="s">
+        <v>1707</v>
+      </c>
       <c r="L215" t="s">
         <v>300</v>
       </c>
@@ -33191,7 +33827,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>2261</v>
       </c>
@@ -33219,6 +33855,9 @@
       <c r="J216" t="s">
         <v>945</v>
       </c>
+      <c r="K216" t="s">
+        <v>1707</v>
+      </c>
       <c r="L216" t="s">
         <v>300</v>
       </c>
@@ -33229,7 +33868,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>2261</v>
       </c>
@@ -33257,6 +33896,9 @@
       <c r="J217" t="s">
         <v>945</v>
       </c>
+      <c r="K217" t="s">
+        <v>1707</v>
+      </c>
       <c r="L217" t="s">
         <v>300</v>
       </c>
@@ -33267,7 +33909,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>2261</v>
       </c>
@@ -33295,6 +33937,9 @@
       <c r="J218" t="s">
         <v>945</v>
       </c>
+      <c r="K218" t="s">
+        <v>1707</v>
+      </c>
       <c r="L218" t="s">
         <v>300</v>
       </c>
@@ -33305,7 +33950,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>2261</v>
       </c>
@@ -33333,6 +33978,9 @@
       <c r="J219" t="s">
         <v>945</v>
       </c>
+      <c r="K219" t="s">
+        <v>1707</v>
+      </c>
       <c r="L219" t="s">
         <v>300</v>
       </c>
@@ -33343,7 +33991,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>2261</v>
       </c>
@@ -33371,6 +34019,9 @@
       <c r="J220" t="s">
         <v>945</v>
       </c>
+      <c r="K220" t="s">
+        <v>1707</v>
+      </c>
       <c r="L220" t="s">
         <v>300</v>
       </c>
@@ -33381,7 +34032,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>2261</v>
       </c>
@@ -33409,6 +34060,9 @@
       <c r="J221" t="s">
         <v>945</v>
       </c>
+      <c r="K221" t="s">
+        <v>1707</v>
+      </c>
       <c r="L221" t="s">
         <v>300</v>
       </c>
@@ -33419,7 +34073,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>2261</v>
       </c>
@@ -33447,6 +34101,9 @@
       <c r="J222" t="s">
         <v>945</v>
       </c>
+      <c r="K222" t="s">
+        <v>1707</v>
+      </c>
       <c r="L222" t="s">
         <v>300</v>
       </c>
@@ -33457,7 +34114,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>2261</v>
       </c>
@@ -33485,6 +34142,9 @@
       <c r="J223" t="s">
         <v>945</v>
       </c>
+      <c r="K223" t="s">
+        <v>1707</v>
+      </c>
       <c r="L223" t="s">
         <v>300</v>
       </c>
@@ -33495,7 +34155,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>2261</v>
       </c>
@@ -33523,6 +34183,9 @@
       <c r="J224" t="s">
         <v>945</v>
       </c>
+      <c r="K224" t="s">
+        <v>1707</v>
+      </c>
       <c r="L224" t="s">
         <v>300</v>
       </c>
@@ -33533,7 +34196,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>2261</v>
       </c>
@@ -33561,6 +34224,9 @@
       <c r="J225" t="s">
         <v>945</v>
       </c>
+      <c r="K225" t="s">
+        <v>1707</v>
+      </c>
       <c r="L225" t="s">
         <v>300</v>
       </c>
@@ -33571,7 +34237,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>2261</v>
       </c>
@@ -33599,6 +34265,9 @@
       <c r="J226" t="s">
         <v>945</v>
       </c>
+      <c r="K226" t="s">
+        <v>1707</v>
+      </c>
       <c r="L226" t="s">
         <v>300</v>
       </c>
@@ -33609,7 +34278,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>2261</v>
       </c>
@@ -33637,6 +34306,9 @@
       <c r="J227" t="s">
         <v>945</v>
       </c>
+      <c r="K227" t="s">
+        <v>1707</v>
+      </c>
       <c r="L227" t="s">
         <v>300</v>
       </c>
@@ -33647,7 +34319,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>2261</v>
       </c>
@@ -33675,6 +34347,9 @@
       <c r="J228" t="s">
         <v>945</v>
       </c>
+      <c r="K228" t="s">
+        <v>1707</v>
+      </c>
       <c r="L228" t="s">
         <v>300</v>
       </c>
@@ -33685,7 +34360,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>2261</v>
       </c>
@@ -33713,6 +34388,9 @@
       <c r="J229" t="s">
         <v>945</v>
       </c>
+      <c r="K229" t="s">
+        <v>1707</v>
+      </c>
       <c r="L229" t="s">
         <v>300</v>
       </c>
@@ -33723,7 +34401,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>2261</v>
       </c>
@@ -33751,6 +34429,9 @@
       <c r="J230" t="s">
         <v>945</v>
       </c>
+      <c r="K230" t="s">
+        <v>1707</v>
+      </c>
       <c r="L230" t="s">
         <v>300</v>
       </c>
@@ -33761,7 +34442,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>2261</v>
       </c>
@@ -33789,6 +34470,9 @@
       <c r="J231" t="s">
         <v>945</v>
       </c>
+      <c r="K231" t="s">
+        <v>1707</v>
+      </c>
       <c r="L231" t="s">
         <v>300</v>
       </c>
@@ -33799,7 +34483,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>2261</v>
       </c>
@@ -33827,6 +34511,9 @@
       <c r="J232" t="s">
         <v>945</v>
       </c>
+      <c r="K232" t="s">
+        <v>1707</v>
+      </c>
       <c r="L232" t="s">
         <v>300</v>
       </c>
@@ -33837,7 +34524,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>2261</v>
       </c>
@@ -33865,6 +34552,9 @@
       <c r="J233" t="s">
         <v>945</v>
       </c>
+      <c r="K233" t="s">
+        <v>1707</v>
+      </c>
       <c r="L233" t="s">
         <v>300</v>
       </c>
@@ -33875,7 +34565,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>2261</v>
       </c>
@@ -33903,6 +34593,9 @@
       <c r="J234" t="s">
         <v>945</v>
       </c>
+      <c r="K234" t="s">
+        <v>1707</v>
+      </c>
       <c r="L234" t="s">
         <v>300</v>
       </c>
@@ -33913,7 +34606,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>2261</v>
       </c>
@@ -33941,6 +34634,9 @@
       <c r="J235" t="s">
         <v>945</v>
       </c>
+      <c r="K235" t="s">
+        <v>1707</v>
+      </c>
       <c r="L235" t="s">
         <v>300</v>
       </c>
@@ -33951,7 +34647,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>2261</v>
       </c>
@@ -33979,6 +34675,9 @@
       <c r="J236" t="s">
         <v>945</v>
       </c>
+      <c r="K236" t="s">
+        <v>1707</v>
+      </c>
       <c r="L236" t="s">
         <v>300</v>
       </c>
@@ -33989,7 +34688,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>2261</v>
       </c>
@@ -34017,6 +34716,9 @@
       <c r="J237" t="s">
         <v>945</v>
       </c>
+      <c r="K237" t="s">
+        <v>1707</v>
+      </c>
       <c r="L237" t="s">
         <v>300</v>
       </c>
@@ -34027,7 +34729,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>2261</v>
       </c>
@@ -34055,6 +34757,9 @@
       <c r="J238" t="s">
         <v>945</v>
       </c>
+      <c r="K238" t="s">
+        <v>1707</v>
+      </c>
       <c r="L238" t="s">
         <v>300</v>
       </c>
@@ -34065,7 +34770,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>2261</v>
       </c>
@@ -34093,6 +34798,9 @@
       <c r="J239" t="s">
         <v>945</v>
       </c>
+      <c r="K239" t="s">
+        <v>1707</v>
+      </c>
       <c r="L239" t="s">
         <v>300</v>
       </c>
@@ -34103,7 +34811,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>2261</v>
       </c>
@@ -34131,6 +34839,9 @@
       <c r="J240" t="s">
         <v>945</v>
       </c>
+      <c r="K240" t="s">
+        <v>1707</v>
+      </c>
       <c r="L240" t="s">
         <v>300</v>
       </c>
@@ -34141,7 +34852,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>2261</v>
       </c>
@@ -34169,6 +34880,9 @@
       <c r="J241" t="s">
         <v>945</v>
       </c>
+      <c r="K241" t="s">
+        <v>1707</v>
+      </c>
       <c r="L241" t="s">
         <v>300</v>
       </c>
@@ -34179,7 +34893,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>2261</v>
       </c>
@@ -34207,6 +34921,9 @@
       <c r="J242" t="s">
         <v>945</v>
       </c>
+      <c r="K242" t="s">
+        <v>1707</v>
+      </c>
       <c r="L242" t="s">
         <v>300</v>
       </c>
@@ -34217,7 +34934,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>2261</v>
       </c>
@@ -34245,6 +34962,9 @@
       <c r="J243" t="s">
         <v>945</v>
       </c>
+      <c r="K243" t="s">
+        <v>1707</v>
+      </c>
       <c r="L243" t="s">
         <v>300</v>
       </c>
@@ -34255,7 +34975,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>2261</v>
       </c>
@@ -34283,6 +35003,9 @@
       <c r="J244" t="s">
         <v>945</v>
       </c>
+      <c r="K244" t="s">
+        <v>1707</v>
+      </c>
       <c r="L244" t="s">
         <v>300</v>
       </c>
@@ -34293,7 +35016,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>2261</v>
       </c>
@@ -34321,6 +35044,9 @@
       <c r="J245" t="s">
         <v>945</v>
       </c>
+      <c r="K245" t="s">
+        <v>1707</v>
+      </c>
       <c r="L245" t="s">
         <v>300</v>
       </c>
@@ -34331,7 +35057,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>2261</v>
       </c>
@@ -34359,6 +35085,9 @@
       <c r="J246" t="s">
         <v>945</v>
       </c>
+      <c r="K246" t="s">
+        <v>1707</v>
+      </c>
       <c r="L246" t="s">
         <v>300</v>
       </c>
@@ -34369,7 +35098,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="247" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>2261</v>
       </c>
@@ -34397,6 +35126,9 @@
       <c r="J247" t="s">
         <v>945</v>
       </c>
+      <c r="K247" t="s">
+        <v>1707</v>
+      </c>
       <c r="L247" t="s">
         <v>300</v>
       </c>
@@ -34407,7 +35139,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>2261</v>
       </c>
@@ -34435,6 +35167,9 @@
       <c r="J248" t="s">
         <v>945</v>
       </c>
+      <c r="K248" t="s">
+        <v>1707</v>
+      </c>
       <c r="L248" t="s">
         <v>300</v>
       </c>
@@ -34445,7 +35180,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>2261</v>
       </c>
@@ -34473,6 +35208,9 @@
       <c r="J249" t="s">
         <v>945</v>
       </c>
+      <c r="K249" t="s">
+        <v>1707</v>
+      </c>
       <c r="L249" t="s">
         <v>300</v>
       </c>
@@ -34483,7 +35221,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>2261</v>
       </c>
@@ -34511,6 +35249,9 @@
       <c r="J250" t="s">
         <v>945</v>
       </c>
+      <c r="K250" t="s">
+        <v>1707</v>
+      </c>
       <c r="L250" t="s">
         <v>300</v>
       </c>
@@ -34521,7 +35262,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>2261</v>
       </c>
@@ -34549,6 +35290,9 @@
       <c r="J251" t="s">
         <v>945</v>
       </c>
+      <c r="K251" t="s">
+        <v>1707</v>
+      </c>
       <c r="L251" t="s">
         <v>300</v>
       </c>
@@ -34559,7 +35303,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>2261</v>
       </c>
@@ -34587,6 +35331,9 @@
       <c r="J252" t="s">
         <v>945</v>
       </c>
+      <c r="K252" t="s">
+        <v>1707</v>
+      </c>
       <c r="L252" t="s">
         <v>300</v>
       </c>
@@ -34597,7 +35344,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>2261</v>
       </c>
@@ -34625,6 +35372,9 @@
       <c r="J253" t="s">
         <v>945</v>
       </c>
+      <c r="K253" t="s">
+        <v>1707</v>
+      </c>
       <c r="L253" t="s">
         <v>300</v>
       </c>
@@ -34635,7 +35385,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>2261</v>
       </c>
@@ -34663,6 +35413,9 @@
       <c r="J254" t="s">
         <v>945</v>
       </c>
+      <c r="K254" t="s">
+        <v>1707</v>
+      </c>
       <c r="L254" t="s">
         <v>300</v>
       </c>
@@ -34673,7 +35426,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>2261</v>
       </c>
@@ -34701,6 +35454,9 @@
       <c r="J255" t="s">
         <v>945</v>
       </c>
+      <c r="K255" t="s">
+        <v>1707</v>
+      </c>
       <c r="L255" t="s">
         <v>300</v>
       </c>
@@ -34711,7 +35467,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>2261</v>
       </c>
@@ -34739,6 +35495,9 @@
       <c r="J256" t="s">
         <v>945</v>
       </c>
+      <c r="K256" t="s">
+        <v>1707</v>
+      </c>
       <c r="L256" t="s">
         <v>300</v>
       </c>
@@ -34749,7 +35508,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="257" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>2261</v>
       </c>
@@ -34777,6 +35536,9 @@
       <c r="J257" t="s">
         <v>945</v>
       </c>
+      <c r="K257" t="s">
+        <v>1707</v>
+      </c>
       <c r="L257" t="s">
         <v>300</v>
       </c>
@@ -34787,7 +35549,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="258" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>2261</v>
       </c>
@@ -34815,6 +35577,9 @@
       <c r="J258" t="s">
         <v>945</v>
       </c>
+      <c r="K258" t="s">
+        <v>1707</v>
+      </c>
       <c r="L258" t="s">
         <v>300</v>
       </c>
@@ -34825,7 +35590,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="259" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>2261</v>
       </c>
@@ -34853,6 +35618,9 @@
       <c r="J259" t="s">
         <v>945</v>
       </c>
+      <c r="K259" t="s">
+        <v>1707</v>
+      </c>
       <c r="L259" t="s">
         <v>300</v>
       </c>
@@ -34863,7 +35631,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="260" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>2261</v>
       </c>
@@ -34891,6 +35659,9 @@
       <c r="J260" t="s">
         <v>945</v>
       </c>
+      <c r="K260" t="s">
+        <v>1707</v>
+      </c>
       <c r="L260" t="s">
         <v>300</v>
       </c>
@@ -34901,7 +35672,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="261" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>2261</v>
       </c>
@@ -34929,6 +35700,9 @@
       <c r="J261" t="s">
         <v>945</v>
       </c>
+      <c r="K261" t="s">
+        <v>1707</v>
+      </c>
       <c r="L261" t="s">
         <v>300</v>
       </c>
@@ -34939,7 +35713,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="262" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>2261</v>
       </c>
@@ -34967,6 +35741,9 @@
       <c r="J262" t="s">
         <v>945</v>
       </c>
+      <c r="K262" t="s">
+        <v>1707</v>
+      </c>
       <c r="L262" t="s">
         <v>300</v>
       </c>
@@ -34977,7 +35754,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="263" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>2261</v>
       </c>
@@ -35005,6 +35782,9 @@
       <c r="J263" t="s">
         <v>945</v>
       </c>
+      <c r="K263" t="s">
+        <v>1707</v>
+      </c>
       <c r="L263" t="s">
         <v>300</v>
       </c>
@@ -35015,7 +35795,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="264" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>2261</v>
       </c>
@@ -35043,6 +35823,9 @@
       <c r="J264" t="s">
         <v>945</v>
       </c>
+      <c r="K264" t="s">
+        <v>1707</v>
+      </c>
       <c r="L264" t="s">
         <v>300</v>
       </c>
@@ -35053,7 +35836,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="265" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>2261</v>
       </c>
@@ -35081,6 +35864,9 @@
       <c r="J265" t="s">
         <v>945</v>
       </c>
+      <c r="K265" t="s">
+        <v>1707</v>
+      </c>
       <c r="L265" t="s">
         <v>300</v>
       </c>
@@ -35091,7 +35877,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="266" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>2261</v>
       </c>
@@ -35119,6 +35905,9 @@
       <c r="J266" t="s">
         <v>945</v>
       </c>
+      <c r="K266" t="s">
+        <v>1707</v>
+      </c>
       <c r="L266" t="s">
         <v>300</v>
       </c>
@@ -35129,7 +35918,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="267" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>2261</v>
       </c>
@@ -35157,6 +35946,9 @@
       <c r="J267" t="s">
         <v>945</v>
       </c>
+      <c r="K267" t="s">
+        <v>1707</v>
+      </c>
       <c r="L267" t="s">
         <v>300</v>
       </c>
@@ -35167,7 +35959,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="268" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>2261</v>
       </c>
@@ -35195,6 +35987,9 @@
       <c r="J268" t="s">
         <v>945</v>
       </c>
+      <c r="K268" t="s">
+        <v>1707</v>
+      </c>
       <c r="L268" t="s">
         <v>300</v>
       </c>
@@ -35205,7 +36000,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="269" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>2261</v>
       </c>
@@ -35233,6 +36028,9 @@
       <c r="J269" t="s">
         <v>945</v>
       </c>
+      <c r="K269" t="s">
+        <v>1707</v>
+      </c>
       <c r="L269" t="s">
         <v>300</v>
       </c>
@@ -35243,7 +36041,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="270" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>2261</v>
       </c>
@@ -35271,6 +36069,9 @@
       <c r="J270" t="s">
         <v>945</v>
       </c>
+      <c r="K270" t="s">
+        <v>1707</v>
+      </c>
       <c r="L270" t="s">
         <v>300</v>
       </c>
@@ -35281,7 +36082,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="271" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>2261</v>
       </c>
@@ -35309,6 +36110,9 @@
       <c r="J271" t="s">
         <v>945</v>
       </c>
+      <c r="K271" t="s">
+        <v>1707</v>
+      </c>
       <c r="L271" t="s">
         <v>300</v>
       </c>
@@ -35319,7 +36123,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="272" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>2261</v>
       </c>
@@ -35347,6 +36151,9 @@
       <c r="J272" t="s">
         <v>945</v>
       </c>
+      <c r="K272" t="s">
+        <v>1707</v>
+      </c>
       <c r="L272" t="s">
         <v>300</v>
       </c>
@@ -35357,7 +36164,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="273" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>2261</v>
       </c>
@@ -35385,6 +36192,9 @@
       <c r="J273" t="s">
         <v>945</v>
       </c>
+      <c r="K273" t="s">
+        <v>1707</v>
+      </c>
       <c r="L273" t="s">
         <v>300</v>
       </c>
@@ -35395,7 +36205,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="274" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>2261</v>
       </c>
@@ -35423,6 +36233,9 @@
       <c r="J274" t="s">
         <v>945</v>
       </c>
+      <c r="K274" t="s">
+        <v>1707</v>
+      </c>
       <c r="L274" t="s">
         <v>300</v>
       </c>
@@ -35430,7 +36243,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="275" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>2261</v>
       </c>
@@ -35458,6 +36271,9 @@
       <c r="J275" t="s">
         <v>945</v>
       </c>
+      <c r="K275" t="s">
+        <v>1707</v>
+      </c>
       <c r="L275" t="s">
         <v>300</v>
       </c>
@@ -35465,7 +36281,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="276" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>2261</v>
       </c>
@@ -35493,6 +36309,9 @@
       <c r="J276" t="s">
         <v>945</v>
       </c>
+      <c r="K276" t="s">
+        <v>1707</v>
+      </c>
       <c r="L276" t="s">
         <v>300</v>
       </c>
@@ -35500,7 +36319,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="277" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>2261</v>
       </c>
@@ -35528,6 +36347,9 @@
       <c r="J277" t="s">
         <v>945</v>
       </c>
+      <c r="K277" t="s">
+        <v>1707</v>
+      </c>
       <c r="L277" t="s">
         <v>300</v>
       </c>
@@ -35535,7 +36357,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="278" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>2261</v>
       </c>
@@ -35563,6 +36385,9 @@
       <c r="J278" t="s">
         <v>945</v>
       </c>
+      <c r="K278" t="s">
+        <v>1707</v>
+      </c>
       <c r="L278" t="s">
         <v>300</v>
       </c>
@@ -35570,7 +36395,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="279" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>2261</v>
       </c>
@@ -35598,6 +36423,9 @@
       <c r="J279" t="s">
         <v>945</v>
       </c>
+      <c r="K279" t="s">
+        <v>1707</v>
+      </c>
       <c r="L279" t="s">
         <v>300</v>
       </c>
@@ -35605,7 +36433,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>2261</v>
       </c>
@@ -35633,6 +36461,9 @@
       <c r="J280" t="s">
         <v>945</v>
       </c>
+      <c r="K280" t="s">
+        <v>1707</v>
+      </c>
       <c r="L280" t="s">
         <v>300</v>
       </c>
@@ -35640,7 +36471,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>2261</v>
       </c>
@@ -35668,6 +36499,9 @@
       <c r="J281" t="s">
         <v>945</v>
       </c>
+      <c r="K281" t="s">
+        <v>1707</v>
+      </c>
       <c r="L281" t="s">
         <v>300</v>
       </c>
@@ -35675,7 +36509,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>2261</v>
       </c>
@@ -35703,6 +36537,9 @@
       <c r="J282" t="s">
         <v>945</v>
       </c>
+      <c r="K282" t="s">
+        <v>1707</v>
+      </c>
       <c r="L282" t="s">
         <v>300</v>
       </c>
@@ -35710,7 +36547,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>2261</v>
       </c>
@@ -35738,6 +36575,9 @@
       <c r="J283" t="s">
         <v>945</v>
       </c>
+      <c r="K283" t="s">
+        <v>1707</v>
+      </c>
       <c r="L283" t="s">
         <v>300</v>
       </c>
@@ -35745,7 +36585,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>2261</v>
       </c>
@@ -35773,6 +36613,9 @@
       <c r="J284" t="s">
         <v>945</v>
       </c>
+      <c r="K284" t="s">
+        <v>1707</v>
+      </c>
       <c r="L284" t="s">
         <v>300</v>
       </c>
@@ -35780,7 +36623,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="285" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>2261</v>
       </c>
@@ -35808,6 +36651,9 @@
       <c r="J285" t="s">
         <v>945</v>
       </c>
+      <c r="K285" t="s">
+        <v>1707</v>
+      </c>
       <c r="L285" t="s">
         <v>300</v>
       </c>
@@ -35815,7 +36661,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="286" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>2261</v>
       </c>
@@ -35843,6 +36689,9 @@
       <c r="J286" t="s">
         <v>945</v>
       </c>
+      <c r="K286" t="s">
+        <v>1707</v>
+      </c>
       <c r="L286" t="s">
         <v>300</v>
       </c>
@@ -35850,7 +36699,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="287" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>2261</v>
       </c>
@@ -35878,6 +36727,9 @@
       <c r="J287" t="s">
         <v>945</v>
       </c>
+      <c r="K287" t="s">
+        <v>1707</v>
+      </c>
       <c r="L287" t="s">
         <v>300</v>
       </c>
@@ -35885,7 +36737,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="288" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>2261</v>
       </c>
@@ -35913,6 +36765,9 @@
       <c r="J288" t="s">
         <v>945</v>
       </c>
+      <c r="K288" t="s">
+        <v>1707</v>
+      </c>
       <c r="L288" t="s">
         <v>300</v>
       </c>
@@ -35920,7 +36775,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="289" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>2261</v>
       </c>
@@ -35947,6 +36802,9 @@
       </c>
       <c r="J289" t="s">
         <v>945</v>
+      </c>
+      <c r="K289" t="s">
+        <v>1707</v>
       </c>
       <c r="L289" t="s">
         <v>300</v>
@@ -35967,9 +36825,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -36196,7 +37054,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -36420,7 +37278,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -36605,9 +37463,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -36708,7 +37566,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -36800,7 +37658,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -36865,9 +37723,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1627</v>
       </c>
@@ -37019,7 +37877,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -37171,7 +38029,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="L3" t="s">
         <v>1679</v>
       </c>
@@ -37194,7 +38052,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1684</v>
       </c>
@@ -37343,7 +38201,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1719</v>
       </c>
@@ -37474,7 +38332,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1755</v>
       </c>
@@ -37587,7 +38445,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1785</v>
       </c>
@@ -37664,7 +38522,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1807</v>
       </c>
@@ -37735,7 +38593,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1824</v>
       </c>
@@ -37791,7 +38649,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1842</v>
       </c>
@@ -37829,7 +38687,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>1853</v>
       </c>
@@ -37858,7 +38716,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
         <v>1860</v>
       </c>
@@ -37878,7 +38736,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
         <v>1866</v>
       </c>
@@ -37895,7 +38753,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
         <v>1871</v>
       </c>
@@ -37909,7 +38767,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="F15" t="s">
         <v>1875</v>
       </c>
@@ -37923,7 +38781,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Z16" t="s">
         <v>1879</v>
       </c>
@@ -37934,7 +38792,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="17" spans="46:47" x14ac:dyDescent="0.2">
+    <row r="17" spans="46:47" x14ac:dyDescent="0.35">
       <c r="AT17" t="s">
         <v>1882</v>
       </c>
@@ -37942,7 +38800,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="18" spans="46:47" x14ac:dyDescent="0.2">
+    <row r="18" spans="46:47" x14ac:dyDescent="0.35">
       <c r="AT18" t="s">
         <v>1884</v>
       </c>
@@ -37950,7 +38808,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="19" spans="46:47" x14ac:dyDescent="0.2">
+    <row r="19" spans="46:47" x14ac:dyDescent="0.35">
       <c r="AT19" t="s">
         <v>1886</v>
       </c>
@@ -37958,7 +38816,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="20" spans="46:47" x14ac:dyDescent="0.2">
+    <row r="20" spans="46:47" x14ac:dyDescent="0.35">
       <c r="AT20" t="s">
         <v>1888</v>
       </c>
@@ -37966,7 +38824,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="21" spans="46:47" x14ac:dyDescent="0.2">
+    <row r="21" spans="46:47" x14ac:dyDescent="0.35">
       <c r="AT21" t="s">
         <v>1890</v>
       </c>
@@ -37974,7 +38832,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="22" spans="46:47" x14ac:dyDescent="0.2">
+    <row r="22" spans="46:47" x14ac:dyDescent="0.35">
       <c r="AT22" t="s">
         <v>1892</v>
       </c>
@@ -37982,7 +38840,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="23" spans="46:47" x14ac:dyDescent="0.2">
+    <row r="23" spans="46:47" x14ac:dyDescent="0.35">
       <c r="AU23" t="s">
         <v>1894</v>
       </c>
